--- a/mappafinale.xlsx
+++ b/mappafinale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003ff561d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f52f150&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;robot (LabServer object) at 0x2003f313210&gt;</t>
+          <t>&lt;robot (LabServer object) at 0x198aa0f64d0&gt;</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f3129d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198aa0f6750&gt;</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -582,7 +582,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>441.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -590,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +602,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f10b450&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -627,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,7 +639,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f32e4d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -655,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>95.48038527526273</v>
+        <v>97.74068924554821</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,7 +676,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003fa9ef90&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -692,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>112.0503852752627</v>
+        <v>114.3106892455482</v>
       </c>
     </row>
     <row r="8">
@@ -701,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -711,7 +713,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f7b6c10&gt;</t>
+          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -729,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>126.6825597627757</v>
+        <v>152.8045748348259</v>
       </c>
     </row>
     <row r="9">
@@ -738,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -748,7 +750,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ff556d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -775,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -785,7 +787,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ff56c10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -795,7 +797,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -816,7 +818,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -826,7 +828,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003ff561d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -836,7 +838,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -857,7 +859,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -867,7 +869,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ff556d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -877,7 +879,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -898,7 +900,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -908,7 +910,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f52d590&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -935,7 +937,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -945,7 +947,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ff56c10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -955,7 +957,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -976,7 +978,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -986,7 +988,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003ff561d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -996,7 +998,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1017,7 +1019,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1027,7 +1029,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ff556d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1037,7 +1039,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1058,7 +1060,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1068,7 +1070,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ff56c10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1078,7 +1080,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1099,7 +1101,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1109,7 +1111,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003ff561d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1119,7 +1121,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1140,7 +1142,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1150,7 +1152,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ff556d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1160,7 +1162,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1181,7 +1183,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1191,7 +1193,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ff56c10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1201,7 +1203,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1222,7 +1224,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1232,7 +1234,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003ff561d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1242,7 +1244,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1263,7 +1265,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1273,7 +1275,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ff556d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1283,7 +1285,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1300,11 +1302,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1314,7 +1316,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ff56c10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1324,7 +1326,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1341,11 +1343,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1355,7 +1357,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003feabfd0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1365,7 +1367,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1382,11 +1384,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1396,7 +1398,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f52f150&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1406,7 +1408,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1423,11 +1425,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1437,7 +1439,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f52d590&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1447,7 +1449,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1464,11 +1466,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1478,7 +1480,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003ff561d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1488,7 +1490,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1505,11 +1507,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1519,7 +1521,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ff556d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1529,7 +1531,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1546,11 +1548,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1560,7 +1562,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ff56c10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1570,7 +1572,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1587,11 +1589,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1601,7 +1603,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ed7c210&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1619,16 +1621,16 @@
         <v>81.52</v>
       </c>
       <c r="I30" t="n">
-        <v>89.48038527526273</v>
+        <v>91.74068924554821</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1638,7 +1640,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ed7f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1648,7 +1650,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1657,19 +1659,19 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>89.48038527526273</v>
+        <v>91.74068924554821</v>
       </c>
       <c r="I31" t="n">
-        <v>89.48038527526273</v>
+        <v>91.74068924554821</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1679,7 +1681,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f10b450&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1689,7 +1691,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1698,7 +1700,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>89.48038527526273</v>
+        <v>91.74068924554821</v>
       </c>
       <c r="I32" t="n">
         <v>121.52</v>
@@ -1706,11 +1708,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1720,7 +1722,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f32f350&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1735,19 +1737,19 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>95.48038527526273</v>
+        <v>97.74068924554821</v>
       </c>
       <c r="I33" t="n">
-        <v>106.0503852752627</v>
+        <v>108.3106892455482</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1757,7 +1759,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003feabfd0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1767,7 +1769,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1784,11 +1786,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1798,7 +1800,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f52f150&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1808,7 +1810,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1825,11 +1827,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1839,7 +1841,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f52d590&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1849,7 +1851,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1866,11 +1868,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1880,7 +1882,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003ff561d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1890,7 +1892,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1907,11 +1909,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1921,7 +1923,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ff556d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1931,7 +1933,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1948,11 +1950,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1962,7 +1964,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f32c5d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1972,7 +1974,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1981,19 +1983,19 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>106.0503852752627</v>
+        <v>108.3106892455482</v>
       </c>
       <c r="I39" t="n">
-        <v>106.0503852752627</v>
+        <v>108.3106892455482</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2003,7 +2005,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f32e4d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2013,7 +2015,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2022,117 +2024,117 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>106.0503852752627</v>
+        <v>108.3106892455482</v>
       </c>
       <c r="I40" t="n">
-        <v>132.9695463294577</v>
+        <v>133.9161478860361</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003fa9f5d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>112.0503852752627</v>
+        <v>114.04</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6825597627757</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ff56c10&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Blocking</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>114.04</v>
+        <v>114.3106892455482</v>
       </c>
       <c r="I42" t="n">
-        <v>143.52</v>
+        <v>146.8045748348259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003fa9ded0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2141,39 +2143,39 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>120.6825597627757</v>
+        <v>121.52</v>
       </c>
       <c r="I43" t="n">
-        <v>120.6825597627757</v>
+        <v>127.9161478860361</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003fa9ef90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2182,19 +2184,19 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>120.6825597627757</v>
+        <v>127.9161478860361</v>
       </c>
       <c r="I44" t="n">
-        <v>149.5395463294577</v>
+        <v>127.9161478860361</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2204,17 +2206,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ed7c210&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2223,29 +2225,29 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>121.52</v>
+        <v>127.9161478860361</v>
       </c>
       <c r="I45" t="n">
-        <v>126.9695463294577</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f7b7ad0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2253,36 +2255,40 @@
           <t>Working</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>126.6825597627757</v>
+        <v>133.9161478860361</v>
       </c>
       <c r="I46" t="n">
-        <v>137.6466121087433</v>
+        <v>144.4861478860361</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ed7f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2292,7 +2298,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2301,29 +2307,29 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>126.9695463294577</v>
+        <v>143.52</v>
       </c>
       <c r="I47" t="n">
-        <v>126.9695463294577</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f10b450&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2333,7 +2339,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2342,29 +2348,29 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>126.9695463294577</v>
+        <v>143.52</v>
       </c>
       <c r="I48" t="n">
-        <v>161.52</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f32f350&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2374,7 +2380,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2383,39 +2389,39 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>132.9695463294577</v>
+        <v>143.52</v>
       </c>
       <c r="I49" t="n">
-        <v>143.5395463294577</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f7b5410&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2424,39 +2430,39 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>137.6466121087433</v>
+        <v>143.52</v>
       </c>
       <c r="I50" t="n">
-        <v>137.6466121087433</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f7b6c10&gt;</t>
+          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2465,29 +2471,29 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>137.6466121087433</v>
+        <v>143.52</v>
       </c>
       <c r="I51" t="n">
-        <v>163.6984381699549</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003feabfd0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2497,7 +2503,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2506,29 +2512,29 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>143.52</v>
+        <v>144.4861478860361</v>
       </c>
       <c r="I52" t="n">
-        <v>143.52</v>
+        <v>144.4861478860361</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f52f150&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2538,7 +2544,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2547,39 +2553,39 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>143.52</v>
+        <v>144.4861478860361</v>
       </c>
       <c r="I53" t="n">
-        <v>143.52</v>
+        <v>173.4165430062895</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f52d590&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2588,10 +2594,10 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>143.52</v>
+        <v>146.8045748348259</v>
       </c>
       <c r="I54" t="n">
-        <v>183.52</v>
+        <v>146.8045748348259</v>
       </c>
     </row>
     <row r="55">
@@ -2600,17 +2606,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2003ff56410&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003ff561d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2620,7 +2626,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2629,37 +2635,39 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>143.52</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>146.8045748348259</v>
+      </c>
+      <c r="I55" t="n">
+        <v>150.4861478860361</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f32c5d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2668,80 +2676,76 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>143.5395463294577</v>
+        <v>150.4861478860361</v>
       </c>
       <c r="I56" t="n">
-        <v>143.5395463294577</v>
+        <v>157.4608780163787</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f32e4d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Starving</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>143.5395463294577</v>
+        <v>152.8045748348259</v>
       </c>
       <c r="I57" t="n">
-        <v>182.3183746150233</v>
+        <v>163.7686271807936</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003fa9f5d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2750,19 +2754,19 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>149.5395463294577</v>
+        <v>154.04</v>
       </c>
       <c r="I58" t="n">
-        <v>157.6984381699549</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2772,7 +2776,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003fa9ded0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2782,7 +2786,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2791,19 +2795,19 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>157.6984381699549</v>
+        <v>157.4608780163787</v>
       </c>
       <c r="I59" t="n">
-        <v>157.6984381699549</v>
+        <v>157.4608780163787</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2813,7 +2817,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003fa9ef90&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2823,7 +2827,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2832,19 +2836,19 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>157.6984381699549</v>
+        <v>157.4608780163787</v>
       </c>
       <c r="I60" t="n">
-        <v>191.8183746150233</v>
+        <v>189.9865430062895</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2854,7 +2858,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ed7c210&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2864,7 +2868,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2876,16 +2880,16 @@
         <v>161.52</v>
       </c>
       <c r="I61" t="n">
-        <v>176.3183746150233</v>
+        <v>167.4165430062895</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2895,17 +2899,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f7b7ad0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2914,19 +2918,19 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>163.6984381699549</v>
+        <v>163.7686271807936</v>
       </c>
       <c r="I62" t="n">
-        <v>173.2985953783221</v>
+        <v>163.7686271807936</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2936,17 +2940,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f7b5410&gt;</t>
+          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2955,19 +2959,19 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>173.2985953783221</v>
+        <v>163.7686271807936</v>
       </c>
       <c r="I63" t="n">
-        <v>173.2985953783221</v>
+        <v>163.7686271807936</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2977,17 +2981,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f7b6c10&gt;</t>
+          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2996,19 +3000,19 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>173.2985953783221</v>
+        <v>163.7686271807936</v>
       </c>
       <c r="I64" t="n">
-        <v>215.2920894528679</v>
+        <v>173.3687843891608</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3018,7 +3022,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ed7f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3028,7 +3032,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3037,19 +3041,19 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>176.3183746150233</v>
+        <v>167.4165430062895</v>
       </c>
       <c r="I65" t="n">
-        <v>176.3183746150233</v>
+        <v>167.4165430062895</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3059,7 +3063,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f10b450&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3069,7 +3073,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3078,7 +3082,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>176.3183746150233</v>
+        <v>167.4165430062895</v>
       </c>
       <c r="I66" t="n">
         <v>201.52</v>
@@ -3086,31 +3090,31 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f32f350&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3119,39 +3123,39 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>182.3183746150233</v>
+        <v>173.3687843891608</v>
       </c>
       <c r="I67" t="n">
-        <v>185.8183746150233</v>
+        <v>173.3687843891608</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003feabfd0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3160,39 +3164,39 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>183.52</v>
+        <v>173.3687843891608</v>
       </c>
       <c r="I68" t="n">
-        <v>183.52</v>
+        <v>207.2307706793652</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f52f150&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3201,19 +3205,19 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>183.52</v>
+        <v>173.4165430062895</v>
       </c>
       <c r="I69" t="n">
-        <v>183.52</v>
+        <v>183.9865430062895</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3223,17 +3227,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f52d590&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3245,36 +3249,36 @@
         <v>183.52</v>
       </c>
       <c r="I70" t="n">
-        <v>223.52</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f32c5d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3283,39 +3287,39 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>185.8183746150233</v>
+        <v>183.52</v>
       </c>
       <c r="I71" t="n">
-        <v>185.8183746150233</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f32e4d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3324,10 +3328,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>185.8183746150233</v>
+        <v>183.52</v>
       </c>
       <c r="I72" t="n">
-        <v>211.5877474403654</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="73">
@@ -3336,27 +3340,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003fa9f5d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3365,29 +3369,29 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>191.8183746150233</v>
+        <v>183.52</v>
       </c>
       <c r="I73" t="n">
-        <v>209.2920894528679</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ed7c210&gt;</t>
+          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3397,7 +3401,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3406,29 +3410,29 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>201.52</v>
+        <v>183.52</v>
       </c>
       <c r="I74" t="n">
-        <v>205.5877474403654</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ed7f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3438,7 +3442,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3447,29 +3451,29 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>205.5877474403654</v>
+        <v>183.9865430062895</v>
       </c>
       <c r="I75" t="n">
-        <v>205.5877474403654</v>
+        <v>183.9865430062895</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f10b450&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3479,7 +3483,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3488,19 +3492,19 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>205.5877474403654</v>
+        <v>183.9865430062895</v>
       </c>
       <c r="I76" t="n">
-        <v>241.52</v>
+        <v>211.9098409778092</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3510,17 +3514,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003fa9ded0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3529,39 +3533,39 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>209.2920894528679</v>
+        <v>189.9865430062895</v>
       </c>
       <c r="I77" t="n">
-        <v>209.2920894528679</v>
+        <v>201.2307706793652</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003fa9ef90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3570,39 +3574,39 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>209.2920894528679</v>
+        <v>194.04</v>
       </c>
       <c r="I78" t="n">
-        <v>228.1577474403654</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f32f350&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3611,39 +3615,39 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>211.5877474403654</v>
+        <v>201.2307706793652</v>
       </c>
       <c r="I79" t="n">
-        <v>222.1577474403654</v>
+        <v>201.2307706793652</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f7b7ad0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3652,39 +3656,39 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>215.2920894528679</v>
+        <v>201.2307706793652</v>
       </c>
       <c r="I80" t="n">
-        <v>225.4708274369736</v>
+        <v>228.4798409778092</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f32c5d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3693,39 +3697,39 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>222.1577474403654</v>
+        <v>201.52</v>
       </c>
       <c r="I81" t="n">
-        <v>222.1577474403654</v>
+        <v>205.9098409778092</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f32e4d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3734,39 +3738,39 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>222.1577474403654</v>
+        <v>205.9098409778092</v>
       </c>
       <c r="I82" t="n">
-        <v>261.3397337220845</v>
+        <v>205.9098409778092</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003feabfd0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3775,39 +3779,39 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>223.52</v>
+        <v>205.9098409778092</v>
       </c>
       <c r="I83" t="n">
-        <v>223.52</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f52f150&gt;</t>
+          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3816,29 +3820,29 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>223.52</v>
+        <v>207.2307706793652</v>
       </c>
       <c r="I84" t="n">
-        <v>223.52</v>
+        <v>217.4095086634709</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f52d590&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3848,7 +3852,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3857,19 +3861,19 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>223.52</v>
+        <v>211.9098409778092</v>
       </c>
       <c r="I85" t="n">
-        <v>263.52</v>
+        <v>222.4798409778092</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3879,7 +3883,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f7b5410&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3889,7 +3893,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3898,19 +3902,19 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>225.4708274369736</v>
+        <v>217.4095086634709</v>
       </c>
       <c r="I86" t="n">
-        <v>225.4708274369736</v>
+        <v>217.4095086634709</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3920,7 +3924,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f7b6c10&gt;</t>
+          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3930,7 +3934,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3939,39 +3943,39 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>225.4708274369736</v>
+        <v>217.4095086634709</v>
       </c>
       <c r="I87" t="n">
-        <v>243.0717334910059</v>
+        <v>240.005326621452</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003fa9f5d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3980,39 +3984,39 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>228.1577474403654</v>
+        <v>222.4798409778092</v>
       </c>
       <c r="I88" t="n">
-        <v>237.0717334910059</v>
+        <v>222.4798409778092</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003fa9ded0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4021,39 +4025,39 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>237.0717334910059</v>
+        <v>222.4798409778092</v>
       </c>
       <c r="I89" t="n">
-        <v>237.0717334910059</v>
+        <v>253.414317330388</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003fa9ef90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4062,39 +4066,39 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>237.0717334910059</v>
+        <v>223.52</v>
       </c>
       <c r="I90" t="n">
-        <v>277.9097337220845</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ed7c210&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4103,29 +4107,29 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>241.52</v>
+        <v>223.52</v>
       </c>
       <c r="I91" t="n">
-        <v>255.3397337220845</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f7b7ad0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4135,7 +4139,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4144,39 +4148,39 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>243.0717334910059</v>
+        <v>223.52</v>
       </c>
       <c r="I92" t="n">
-        <v>254.5126266902074</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f7b5410&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4185,39 +4189,39 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>254.5126266902074</v>
+        <v>223.52</v>
       </c>
       <c r="I93" t="n">
-        <v>254.5126266902074</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f7b6c10&gt;</t>
+          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4226,39 +4230,39 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>254.5126266902074</v>
+        <v>223.52</v>
       </c>
       <c r="I94" t="n">
-        <v>287.5450833550947</v>
+        <v>234.04</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ed7f010&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4267,39 +4271,39 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>255.3397337220845</v>
+        <v>228.4798409778092</v>
       </c>
       <c r="I95" t="n">
-        <v>255.3397337220845</v>
+        <v>234.005326621452</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f10b450&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4308,39 +4312,39 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>255.3397337220845</v>
+        <v>234.005326621452</v>
       </c>
       <c r="I96" t="n">
-        <v>281.52</v>
+        <v>234.005326621452</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f32f350&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4349,29 +4353,29 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>261.3397337220845</v>
+        <v>234.005326621452</v>
       </c>
       <c r="I97" t="n">
-        <v>271.9097337220845</v>
+        <v>262.914317330388</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003feabfd0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4381,7 +4385,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4390,7 +4394,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>263.52</v>
+        <v>234.04</v>
       </c>
       <c r="I98" t="n">
         <v>263.52</v>
@@ -4398,31 +4402,31 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f52f150&gt;</t>
+          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4431,29 +4435,29 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>263.52</v>
+        <v>240.005326621452</v>
       </c>
       <c r="I99" t="n">
-        <v>263.52</v>
+        <v>251.4462198206535</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f52d590&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4463,7 +4467,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4472,29 +4476,29 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>263.52</v>
+        <v>241.52</v>
       </c>
       <c r="I100" t="n">
-        <v>303.52</v>
+        <v>247.414317330388</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f32c5d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4504,7 +4508,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4513,29 +4517,29 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>271.9097337220845</v>
+        <v>247.414317330388</v>
       </c>
       <c r="I101" t="n">
-        <v>271.9097337220845</v>
+        <v>247.414317330388</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f32e4d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4545,7 +4549,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4554,39 +4558,39 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>271.9097337220845</v>
+        <v>247.414317330388</v>
       </c>
       <c r="I102" t="n">
-        <v>315.0099305834493</v>
+        <v>281.52</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003fa9f5d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4595,39 +4599,39 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>277.9097337220845</v>
+        <v>251.4462198206535</v>
       </c>
       <c r="I103" t="n">
-        <v>281.5450833550947</v>
+        <v>251.4462198206535</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ed7c210&gt;</t>
+          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4636,39 +4640,39 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>281.52</v>
+        <v>251.4462198206535</v>
       </c>
       <c r="I104" t="n">
-        <v>309.0099305834493</v>
+        <v>283.3919883184971</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003fa9ded0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4677,39 +4681,39 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>281.5450833550947</v>
+        <v>253.414317330388</v>
       </c>
       <c r="I105" t="n">
-        <v>281.5450833550947</v>
+        <v>256.914317330388</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003fa9ef90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4718,39 +4722,39 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>281.5450833550947</v>
+        <v>256.914317330388</v>
       </c>
       <c r="I106" t="n">
-        <v>324.5099305834493</v>
+        <v>256.914317330388</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f7b7ad0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4759,39 +4763,39 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>287.5450833550947</v>
+        <v>256.914317330388</v>
       </c>
       <c r="I107" t="n">
-        <v>298.6126413452447</v>
+        <v>292.4874631674578</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f7b5410&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4800,39 +4804,39 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>298.6126413452447</v>
+        <v>262.914317330388</v>
       </c>
       <c r="I108" t="n">
-        <v>298.6126413452447</v>
+        <v>277.3919883184971</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f7b6c10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4841,19 +4845,19 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>298.6126413452447</v>
+        <v>263.52</v>
       </c>
       <c r="I109" t="n">
-        <v>337.2793395159588</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4863,17 +4867,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003feabfd0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4882,19 +4886,19 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>303.52</v>
+        <v>263.52</v>
       </c>
       <c r="I110" t="n">
-        <v>303.52</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2003f52fad0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4904,17 +4908,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f52f150&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4923,37 +4927,39 @@
         </is>
       </c>
       <c r="H111" t="n">
+        <v>263.52</v>
+      </c>
+      <c r="I111" t="n">
         <v>303.52</v>
       </c>
-      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ed7f010&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4962,39 +4968,37 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>309.0099305834493</v>
-      </c>
-      <c r="I112" t="n">
-        <v>309.0099305834493</v>
-      </c>
+        <v>263.52</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f10b450&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5003,39 +5007,39 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>309.0099305834493</v>
+        <v>277.3919883184971</v>
       </c>
       <c r="I113" t="n">
-        <v>321.52</v>
+        <v>277.3919883184971</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f32f350&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5044,39 +5048,39 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>315.0099305834493</v>
+        <v>277.3919883184971</v>
       </c>
       <c r="I114" t="n">
-        <v>318.5099305834493</v>
+        <v>309.0574631674578</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f32c5d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5085,39 +5089,39 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>318.5099305834493</v>
+        <v>281.52</v>
       </c>
       <c r="I115" t="n">
-        <v>318.5099305834493</v>
+        <v>286.4874631674578</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f32e4d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5126,19 +5130,19 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>318.5099305834493</v>
+        <v>283.3919883184971</v>
       </c>
       <c r="I116" t="n">
-        <v>339.5452930397972</v>
+        <v>294.459546308647</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5148,17 +5152,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003ed7c210&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5167,39 +5171,39 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>321.52</v>
+        <v>286.4874631674578</v>
       </c>
       <c r="I117" t="n">
-        <v>333.5452930397972</v>
+        <v>286.4874631674578</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003fa9f5d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5208,39 +5212,39 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>324.5099305834493</v>
+        <v>286.4874631674578</v>
       </c>
       <c r="I118" t="n">
-        <v>331.2793395159588</v>
+        <v>321.52</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003fa9ded0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5249,39 +5253,39 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>331.2793395159588</v>
+        <v>292.4874631674578</v>
       </c>
       <c r="I119" t="n">
-        <v>331.2793395159588</v>
+        <v>303.0574631674578</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003fa9ef90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5290,39 +5294,39 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>331.2793395159588</v>
+        <v>294.459546308647</v>
       </c>
       <c r="I120" t="n">
-        <v>356.1152930397972</v>
+        <v>294.459546308647</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003ed7f010&gt;</t>
+          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5331,39 +5335,39 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>333.5452930397972</v>
+        <v>294.459546308647</v>
       </c>
       <c r="I121" t="n">
-        <v>333.5452930397972</v>
+        <v>318.7606011537722</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2003f4bac50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f10b450&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5372,37 +5376,39 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>333.5452930397972</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>303.0574631674578</v>
+      </c>
+      <c r="I122" t="n">
+        <v>303.0574631674578</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f7b7ad0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5411,39 +5417,39 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>337.2793395159588</v>
+        <v>303.0574631674578</v>
       </c>
       <c r="I123" t="n">
-        <v>345.5020616360824</v>
+        <v>335.0838588946256</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f32f350&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5452,39 +5458,39 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>339.5452930397972</v>
+        <v>303.52</v>
       </c>
       <c r="I124" t="n">
-        <v>350.1152930397972</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f7b5410&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5493,39 +5499,39 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>345.5020616360824</v>
+        <v>303.52</v>
       </c>
       <c r="I125" t="n">
-        <v>345.5020616360824</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f7b6c10&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5534,39 +5540,39 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>345.5020616360824</v>
+        <v>303.52</v>
       </c>
       <c r="I126" t="n">
-        <v>382.8271939320369</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f32c5d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5575,39 +5581,39 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>350.1152930397972</v>
+        <v>309.0574631674578</v>
       </c>
       <c r="I127" t="n">
-        <v>350.1152930397972</v>
+        <v>312.7606011537722</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2003f32fa90&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003f32e4d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5616,17 +5622,19 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>350.1152930397972</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>312.7606011537722</v>
+      </c>
+      <c r="I128" t="n">
+        <v>312.7606011537722</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5636,17 +5644,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003fa9f5d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5655,39 +5663,39 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>356.1152930397972</v>
+        <v>312.7606011537722</v>
       </c>
       <c r="I129" t="n">
-        <v>376.8271939320369</v>
+        <v>351.6538588946256</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003fa9ded0&gt;</t>
+          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5696,39 +5704,39 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>376.8271939320369</v>
+        <v>318.7606011537722</v>
       </c>
       <c r="I130" t="n">
-        <v>376.8271939320369</v>
+        <v>326.9833232738958</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2003fa9d490&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2003fa9ef90&gt;</t>
+          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5737,17 +5745,19 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>376.8271939320369</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>321.52</v>
+      </c>
+      <c r="I131" t="n">
+        <v>329.0838588946256</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5757,17 +5767,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x2003f7b7ad0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5776,19 +5786,19 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>382.8271939320369</v>
+        <v>326.9833232738958</v>
       </c>
       <c r="I132" t="n">
-        <v>392.9772823495625</v>
+        <v>326.9833232738958</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5798,17 +5808,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x2003f7b5410&gt;</t>
+          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5817,50 +5827,2373 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>392.9772823495625</v>
+        <v>326.9833232738958</v>
       </c>
       <c r="I133" t="n">
-        <v>392.9772823495625</v>
+        <v>374.5742825016994</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2003f7b7750&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>329.0838588946256</v>
+      </c>
+      <c r="I134" t="n">
+        <v>329.0838588946256</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>329.0838588946256</v>
+      </c>
+      <c r="I135" t="n">
+        <v>361.52</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>335.0838588946256</v>
+      </c>
+      <c r="I136" t="n">
+        <v>345.6538588946256</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="I137" t="n">
+        <v>343.52</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="I138" t="n">
+        <v>343.52</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="I139" t="n">
+        <v>383.52</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>345.6538588946256</v>
+      </c>
+      <c r="I140" t="n">
+        <v>345.6538588946256</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>345.6538588946256</v>
+      </c>
+      <c r="I141" t="n">
+        <v>376.610665082042</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>351.6538588946256</v>
+      </c>
+      <c r="I142" t="n">
+        <v>368.5742825016994</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>361.52</v>
+      </c>
+      <c r="I143" t="n">
+        <v>370.610665082042</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>368.5742825016994</v>
+      </c>
+      <c r="I144" t="n">
+        <v>368.5742825016994</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>368.5742825016994</v>
+      </c>
+      <c r="I145" t="n">
+        <v>393.180665082042</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>370.610665082042</v>
+      </c>
+      <c r="I146" t="n">
+        <v>370.610665082042</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>370.610665082042</v>
+      </c>
+      <c r="I147" t="n">
+        <v>401.52</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>&lt;Starving (State) object at 0x2003f7b6c10&gt;</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>374.5742825016994</v>
+      </c>
+      <c r="I148" t="n">
+        <v>384.724370919225</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>376.610665082042</v>
+      </c>
+      <c r="I149" t="n">
+        <v>387.180665082042</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="I150" t="n">
+        <v>383.52</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
         <is>
           <t>Starving</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>392.9772823495625</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="I151" t="n">
+        <v>383.52</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="I152" t="n">
+        <v>423.52</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>384.724370919225</v>
+      </c>
+      <c r="I153" t="n">
+        <v>384.724370919225</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>384.724370919225</v>
+      </c>
+      <c r="I154" t="n">
+        <v>413.0994756787671</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>387.180665082042</v>
+      </c>
+      <c r="I155" t="n">
+        <v>387.180665082042</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>387.180665082042</v>
+      </c>
+      <c r="I156" t="n">
+        <v>411.0293640915307</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>393.180665082042</v>
+      </c>
+      <c r="I157" t="n">
+        <v>407.0994756787671</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>401.52</v>
+      </c>
+      <c r="I158" t="n">
+        <v>405.0293640915307</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>405.0293640915307</v>
+      </c>
+      <c r="I159" t="n">
+        <v>405.0293640915307</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>405.0293640915307</v>
+      </c>
+      <c r="I160" t="n">
+        <v>558.52</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>407.0994756787671</v>
+      </c>
+      <c r="I161" t="n">
+        <v>407.0994756787671</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>407.0994756787671</v>
+      </c>
+      <c r="I162" t="n">
+        <v>420.5293640915307</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>411.0293640915307</v>
+      </c>
+      <c r="I163" t="n">
+        <v>414.5293640915307</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>413.0994756787671</v>
+      </c>
+      <c r="I164" t="n">
+        <v>422.1481184704694</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>414.5293640915307</v>
+      </c>
+      <c r="I165" t="n">
+        <v>414.5293640915307</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>414.5293640915307</v>
+      </c>
+      <c r="I166" t="n">
+        <v>585.4367362513271</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>420.5293640915307</v>
+      </c>
+      <c r="I167" t="n">
+        <v>441.3391579539539</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>422.1481184704694</v>
+      </c>
+      <c r="I168" t="n">
+        <v>422.1481184704694</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>422.1481184704694</v>
+      </c>
+      <c r="I169" t="n">
+        <v>447.3391579539539</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>423.52</v>
+      </c>
+      <c r="I170" t="n">
+        <v>423.52</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>423.52</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>441.3391579539539</v>
+      </c>
+      <c r="I172" t="n">
+        <v>441.3391579539539</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>441.3391579539539</v>
+      </c>
+      <c r="I173" t="n">
+        <v>602.0067362513272</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>&lt;robot (LabServer object) at 0x198aa0f64d0&gt;</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198aa0f4810&gt;</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>441.52</v>
+      </c>
+      <c r="I174" t="n">
+        <v>546.52</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>447.3391579539539</v>
+      </c>
+      <c r="I175" t="n">
+        <v>456.4359391021604</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>456.4359391021604</v>
+      </c>
+      <c r="I176" t="n">
+        <v>456.4359391021604</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>456.4359391021604</v>
+      </c>
+      <c r="I177" t="n">
+        <v>618.4418205448883</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>&lt;robot (LabServer object) at 0x198aa0f64d0&gt;</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198aa0f44d0&gt;</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>546.52</v>
+      </c>
+      <c r="I178" t="n">
+        <v>546.52</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>&lt;robot (LabServer object) at 0x198aa0f64d0&gt;</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198aa0f6750&gt;</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>546.52</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>558.52</v>
+      </c>
+      <c r="I180" t="n">
+        <v>579.4367362513271</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>579.4367362513271</v>
+      </c>
+      <c r="I181" t="n">
+        <v>579.4367362513271</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>579.4367362513271</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>585.4367362513271</v>
+      </c>
+      <c r="I183" t="n">
+        <v>596.0067362513272</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>596.0067362513272</v>
+      </c>
+      <c r="I184" t="n">
+        <v>596.0067362513272</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>596.0067362513272</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>602.0067362513272</v>
+      </c>
+      <c r="I186" t="n">
+        <v>612.4418205448883</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>612.4418205448883</v>
+      </c>
+      <c r="I187" t="n">
+        <v>612.4418205448883</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>612.4418205448883</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>618.4418205448883</v>
+      </c>
+      <c r="I189" t="n">
+        <v>628.0524190468267</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>628.0524190468267</v>
+      </c>
+      <c r="I190" t="n">
+        <v>628.0524190468267</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>628.0524190468267</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mappafinale.xlsx
+++ b/mappafinale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;robot (LabServer object) at 0x198aa0f64d0&gt;</t>
+          <t>&lt;robot (LabServer object) at 0x198b2b69b90&gt;</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa0f6750&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b69bd0&gt;</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -582,9 +582,7 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>441.52</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -592,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +600,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,7 +637,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -657,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>97.74068924554821</v>
+        <v>95.61294423578325</v>
       </c>
     </row>
     <row r="7">
@@ -666,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,7 +674,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -694,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.3106892455482</v>
+        <v>112.1829442357833</v>
       </c>
     </row>
     <row r="8">
@@ -703,7 +701,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -713,7 +711,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -731,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>152.8045748348259</v>
+        <v>144.3993582605025</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +738,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -750,7 +748,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -777,7 +775,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -787,7 +785,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -797,7 +795,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -818,7 +816,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -828,7 +826,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -838,7 +836,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -859,7 +857,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -869,7 +867,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -879,7 +877,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -900,7 +898,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -910,7 +908,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -937,7 +935,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -947,7 +945,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -957,7 +955,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -978,7 +976,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -988,7 +986,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -998,7 +996,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1019,7 +1017,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1029,7 +1027,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1039,7 +1037,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1060,7 +1058,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1070,7 +1068,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1080,7 +1078,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1101,7 +1099,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1111,7 +1109,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1121,7 +1119,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1142,7 +1140,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1152,7 +1150,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1162,7 +1160,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1183,7 +1181,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1193,7 +1191,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1203,7 +1201,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1224,7 +1222,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1234,7 +1232,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1244,7 +1242,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1265,7 +1263,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1275,7 +1273,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1285,7 +1283,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1306,7 +1304,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1316,7 +1314,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1326,7 +1324,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1347,7 +1345,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1357,7 +1355,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1367,7 +1365,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1388,7 +1386,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1398,7 +1396,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1408,7 +1406,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1429,7 +1427,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1439,7 +1437,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1449,7 +1447,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1470,7 +1468,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1480,7 +1478,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1490,7 +1488,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1511,7 +1509,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1521,7 +1519,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1531,7 +1529,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1552,7 +1550,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1562,7 +1560,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1572,7 +1570,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1593,7 +1591,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1603,7 +1601,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1621,7 +1619,7 @@
         <v>81.52</v>
       </c>
       <c r="I30" t="n">
-        <v>91.74068924554821</v>
+        <v>89.61294423578325</v>
       </c>
     </row>
     <row r="31">
@@ -1630,7 +1628,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1640,7 +1638,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1650,7 +1648,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1659,10 +1657,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>91.74068924554821</v>
+        <v>89.61294423578325</v>
       </c>
       <c r="I31" t="n">
-        <v>91.74068924554821</v>
+        <v>89.61294423578325</v>
       </c>
     </row>
     <row r="32">
@@ -1671,7 +1669,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1681,7 +1679,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1691,7 +1689,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1700,7 +1698,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>91.74068924554821</v>
+        <v>89.61294423578325</v>
       </c>
       <c r="I32" t="n">
         <v>121.52</v>
@@ -1712,7 +1710,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1722,7 +1720,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1737,10 +1735,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>97.74068924554821</v>
+        <v>95.61294423578325</v>
       </c>
       <c r="I33" t="n">
-        <v>108.3106892455482</v>
+        <v>106.1829442357833</v>
       </c>
     </row>
     <row r="34">
@@ -1749,7 +1747,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1759,7 +1757,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1769,7 +1767,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1790,7 +1788,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1800,7 +1798,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1810,7 +1808,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1831,7 +1829,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1841,7 +1839,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1851,7 +1849,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1872,7 +1870,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1882,7 +1880,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1892,7 +1890,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1913,7 +1911,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1923,7 +1921,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1933,7 +1931,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1950,11 +1948,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1964,7 +1962,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1974,7 +1972,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1983,19 +1981,19 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>108.3106892455482</v>
+        <v>106.1829442357833</v>
       </c>
       <c r="I39" t="n">
-        <v>108.3106892455482</v>
+        <v>106.1829442357833</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2005,7 +2003,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2015,7 +2013,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2024,51 +2022,47 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>108.3106892455482</v>
+        <v>106.1829442357833</v>
       </c>
       <c r="I40" t="n">
-        <v>133.9161478860361</v>
+        <v>148.358946411707</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Blocking</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>114.04</v>
+        <v>112.1829442357833</v>
       </c>
       <c r="I41" t="n">
-        <v>143.52</v>
+        <v>138.3993582605025</v>
       </c>
     </row>
     <row r="42">
@@ -2077,44 +2071,48 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>114.3106892455482</v>
+        <v>114.04</v>
       </c>
       <c r="I42" t="n">
-        <v>146.8045748348259</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2124,7 +2122,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2134,7 +2132,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2146,26 +2144,26 @@
         <v>121.52</v>
       </c>
       <c r="I43" t="n">
-        <v>127.9161478860361</v>
+        <v>142.358946411707</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2175,7 +2173,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2184,29 +2182,29 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>127.9161478860361</v>
+        <v>138.3993582605025</v>
       </c>
       <c r="I44" t="n">
-        <v>127.9161478860361</v>
+        <v>138.3993582605025</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2216,7 +2214,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2225,39 +2223,39 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>127.9161478860361</v>
+        <v>138.3993582605025</v>
       </c>
       <c r="I45" t="n">
-        <v>161.52</v>
+        <v>164.928946411707</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2266,39 +2264,39 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>133.9161478860361</v>
+        <v>142.358946411707</v>
       </c>
       <c r="I46" t="n">
-        <v>144.4861478860361</v>
+        <v>142.358946411707</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2307,19 +2305,19 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>143.52</v>
+        <v>142.358946411707</v>
       </c>
       <c r="I47" t="n">
-        <v>143.52</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2329,17 +2327,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2356,11 +2354,11 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2370,17 +2368,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2392,36 +2390,36 @@
         <v>143.52</v>
       </c>
       <c r="I49" t="n">
-        <v>183.52</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2433,16 +2431,16 @@
         <v>143.52</v>
       </c>
       <c r="I50" t="n">
-        <v>143.52</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2452,17 +2450,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2474,7 +2472,7 @@
         <v>143.52</v>
       </c>
       <c r="I51" t="n">
-        <v>154.04</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="52">
@@ -2483,27 +2481,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2512,80 +2510,76 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>144.4861478860361</v>
+        <v>143.52</v>
       </c>
       <c r="I52" t="n">
-        <v>144.4861478860361</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Starving</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>144.4861478860361</v>
+        <v>144.3993582605025</v>
       </c>
       <c r="I53" t="n">
-        <v>173.4165430062895</v>
+        <v>155.3634106064702</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2594,39 +2588,39 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>146.8045748348259</v>
+        <v>148.358946411707</v>
       </c>
       <c r="I54" t="n">
-        <v>146.8045748348259</v>
+        <v>158.928946411707</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2635,39 +2629,39 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>146.8045748348259</v>
+        <v>154.04</v>
       </c>
       <c r="I55" t="n">
-        <v>150.4861478860361</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2676,19 +2670,19 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>150.4861478860361</v>
+        <v>155.3634106064702</v>
       </c>
       <c r="I56" t="n">
-        <v>157.4608780163787</v>
+        <v>155.3634106064702</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2698,44 +2692,48 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>152.8045748348259</v>
+        <v>155.3634106064702</v>
       </c>
       <c r="I57" t="n">
-        <v>163.7686271807936</v>
+        <v>178.3504060776352</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2745,7 +2743,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2754,39 +2752,39 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>154.04</v>
+        <v>158.928946411707</v>
       </c>
       <c r="I58" t="n">
-        <v>183.52</v>
+        <v>158.928946411707</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2795,39 +2793,39 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>157.4608780163787</v>
+        <v>158.928946411707</v>
       </c>
       <c r="I59" t="n">
-        <v>157.4608780163787</v>
+        <v>171.7829212812041</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2836,29 +2834,29 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>157.4608780163787</v>
+        <v>161.52</v>
       </c>
       <c r="I60" t="n">
-        <v>189.9865430062895</v>
+        <v>165.7829212812041</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2868,7 +2866,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2877,29 +2875,29 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>161.52</v>
+        <v>164.928946411707</v>
       </c>
       <c r="I61" t="n">
-        <v>167.4165430062895</v>
+        <v>172.3504060776352</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2909,7 +2907,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2918,29 +2916,29 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>163.7686271807936</v>
+        <v>165.7829212812041</v>
       </c>
       <c r="I62" t="n">
-        <v>163.7686271807936</v>
+        <v>165.7829212812041</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2950,7 +2948,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2959,29 +2957,29 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>163.7686271807936</v>
+        <v>165.7829212812041</v>
       </c>
       <c r="I63" t="n">
-        <v>163.7686271807936</v>
+        <v>201.52</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2991,7 +2989,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A82E3190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3000,29 +2998,29 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>163.7686271807936</v>
+        <v>171.7829212812041</v>
       </c>
       <c r="I64" t="n">
-        <v>173.3687843891608</v>
+        <v>182.3529212812041</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3032,7 +3030,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3041,29 +3039,29 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>167.4165430062895</v>
+        <v>172.3504060776352</v>
       </c>
       <c r="I65" t="n">
-        <v>167.4165430062895</v>
+        <v>172.3504060776352</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3073,7 +3071,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3082,19 +3080,19 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>167.4165430062895</v>
+        <v>172.3504060776352</v>
       </c>
       <c r="I66" t="n">
-        <v>201.52</v>
+        <v>188.3529212812041</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3104,17 +3102,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3123,39 +3121,39 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>173.3687843891608</v>
+        <v>178.3504060776352</v>
       </c>
       <c r="I67" t="n">
-        <v>173.3687843891608</v>
+        <v>187.9505632860024</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3164,19 +3162,19 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>173.3687843891608</v>
+        <v>182.3529212812041</v>
       </c>
       <c r="I68" t="n">
-        <v>207.2307706793652</v>
+        <v>182.3529212812041</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3186,17 +3184,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3205,19 +3203,19 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>173.4165430062895</v>
+        <v>182.3529212812041</v>
       </c>
       <c r="I69" t="n">
-        <v>183.9865430062895</v>
+        <v>223.6288469846695</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3227,7 +3225,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3237,7 +3235,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3254,11 +3252,11 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3268,7 +3266,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3278,7 +3276,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3295,11 +3293,11 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3309,7 +3307,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3319,7 +3317,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3336,11 +3334,11 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3350,7 +3348,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3360,7 +3358,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3377,11 +3375,11 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3391,7 +3389,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3401,7 +3399,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3418,21 +3416,21 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3442,7 +3440,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3451,29 +3449,29 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>183.9865430062895</v>
+        <v>187.9505632860024</v>
       </c>
       <c r="I75" t="n">
-        <v>183.9865430062895</v>
+        <v>187.9505632860024</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3483,7 +3481,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3492,19 +3490,19 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>183.9865430062895</v>
+        <v>187.9505632860024</v>
       </c>
       <c r="I76" t="n">
-        <v>211.9098409778092</v>
+        <v>208.5751736593068</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3514,7 +3512,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3524,7 +3522,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3533,10 +3531,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>189.9865430062895</v>
+        <v>188.3529212812041</v>
       </c>
       <c r="I77" t="n">
-        <v>201.2307706793652</v>
+        <v>202.5751736593068</v>
       </c>
     </row>
     <row r="78">
@@ -3545,7 +3543,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3555,7 +3553,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3565,7 +3563,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3582,31 +3580,31 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3615,19 +3613,19 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>201.2307706793652</v>
+        <v>201.52</v>
       </c>
       <c r="I79" t="n">
-        <v>201.2307706793652</v>
+        <v>217.6288469846695</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3637,17 +3635,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3656,39 +3654,39 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>201.2307706793652</v>
+        <v>202.5751736593068</v>
       </c>
       <c r="I80" t="n">
-        <v>228.4798409778092</v>
+        <v>202.5751736593068</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3697,39 +3695,39 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>201.52</v>
+        <v>202.5751736593068</v>
       </c>
       <c r="I81" t="n">
-        <v>205.9098409778092</v>
+        <v>240.1988469846695</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3738,19 +3736,19 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>205.9098409778092</v>
+        <v>208.5751736593068</v>
       </c>
       <c r="I82" t="n">
-        <v>205.9098409778092</v>
+        <v>218.7539116434126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3760,17 +3758,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3779,39 +3777,39 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>205.9098409778092</v>
+        <v>217.6288469846695</v>
       </c>
       <c r="I83" t="n">
-        <v>241.52</v>
+        <v>217.6288469846695</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8041950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3820,39 +3818,39 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>207.2307706793652</v>
+        <v>217.6288469846695</v>
       </c>
       <c r="I84" t="n">
-        <v>217.4095086634709</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3861,19 +3859,19 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>211.9098409778092</v>
+        <v>218.7539116434126</v>
       </c>
       <c r="I85" t="n">
-        <v>222.4798409778092</v>
+        <v>218.7539116434126</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3883,17 +3881,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3902,39 +3900,39 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>217.4095086634709</v>
+        <v>218.7539116434126</v>
       </c>
       <c r="I86" t="n">
-        <v>217.4095086634709</v>
+        <v>254.9575293667189</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3943,39 +3941,39 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>217.4095086634709</v>
+        <v>223.52</v>
       </c>
       <c r="I87" t="n">
-        <v>240.005326621452</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3984,39 +3982,39 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>222.4798409778092</v>
+        <v>223.52</v>
       </c>
       <c r="I88" t="n">
-        <v>222.4798409778092</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4025,39 +4023,39 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>222.4798409778092</v>
+        <v>223.52</v>
       </c>
       <c r="I89" t="n">
-        <v>253.414317330388</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4074,31 +4072,31 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4110,26 +4108,26 @@
         <v>223.52</v>
       </c>
       <c r="I91" t="n">
-        <v>223.52</v>
+        <v>234.04</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4139,7 +4137,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4148,19 +4146,19 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>223.52</v>
+        <v>223.6288469846695</v>
       </c>
       <c r="I92" t="n">
-        <v>263.52</v>
+        <v>234.1988469846695</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4170,17 +4168,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4189,39 +4187,39 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>223.52</v>
+        <v>234.04</v>
       </c>
       <c r="I93" t="n">
-        <v>223.52</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a99fc210&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4230,39 +4228,39 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>223.52</v>
+        <v>234.1988469846695</v>
       </c>
       <c r="I94" t="n">
-        <v>234.04</v>
+        <v>234.1988469846695</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4271,19 +4269,19 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>228.4798409778092</v>
+        <v>234.1988469846695</v>
       </c>
       <c r="I95" t="n">
-        <v>234.005326621452</v>
+        <v>252.7558654704403</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4293,17 +4291,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4312,39 +4310,39 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>234.005326621452</v>
+        <v>240.1988469846695</v>
       </c>
       <c r="I96" t="n">
-        <v>234.005326621452</v>
+        <v>248.9575293667189</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4353,29 +4351,29 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>234.005326621452</v>
+        <v>241.52</v>
       </c>
       <c r="I97" t="n">
-        <v>262.914317330388</v>
+        <v>246.7558654704403</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a99ffe50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4385,7 +4383,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4394,39 +4392,39 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>234.04</v>
+        <v>246.7558654704403</v>
       </c>
       <c r="I98" t="n">
-        <v>263.52</v>
+        <v>246.7558654704403</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198FBDCED90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4435,39 +4433,39 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>240.005326621452</v>
+        <v>246.7558654704403</v>
       </c>
       <c r="I99" t="n">
-        <v>251.4462198206535</v>
+        <v>281.52</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4476,39 +4474,39 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>241.52</v>
+        <v>248.9575293667189</v>
       </c>
       <c r="I100" t="n">
-        <v>247.414317330388</v>
+        <v>248.9575293667189</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4517,39 +4515,39 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>247.414317330388</v>
+        <v>248.9575293667189</v>
       </c>
       <c r="I101" t="n">
-        <v>247.414317330388</v>
+        <v>269.3258654704403</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4558,19 +4556,19 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>247.414317330388</v>
+        <v>252.7558654704403</v>
       </c>
       <c r="I102" t="n">
-        <v>281.52</v>
+        <v>263.3258654704403</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4580,17 +4578,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4599,39 +4597,39 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>251.4462198206535</v>
+        <v>254.9575293667189</v>
       </c>
       <c r="I103" t="n">
-        <v>251.4462198206535</v>
+        <v>266.3984225659204</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4640,19 +4638,19 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>251.4462198206535</v>
+        <v>263.3258654704403</v>
       </c>
       <c r="I104" t="n">
-        <v>283.3919883184971</v>
+        <v>263.3258654704403</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4662,17 +4660,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4681,29 +4679,29 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>253.414317330388</v>
+        <v>263.3258654704403</v>
       </c>
       <c r="I105" t="n">
-        <v>256.914317330388</v>
+        <v>293.2095723619149</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4713,7 +4711,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4722,29 +4720,29 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>256.914317330388</v>
+        <v>263.52</v>
       </c>
       <c r="I106" t="n">
-        <v>256.914317330388</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4754,7 +4752,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4763,29 +4761,29 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>256.914317330388</v>
+        <v>263.52</v>
       </c>
       <c r="I107" t="n">
-        <v>292.4874631674578</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4795,7 +4793,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4804,39 +4802,39 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>262.914317330388</v>
+        <v>263.52</v>
       </c>
       <c r="I108" t="n">
-        <v>277.3919883184971</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4847,37 +4845,35 @@
       <c r="H109" t="n">
         <v>263.52</v>
       </c>
-      <c r="I109" t="n">
-        <v>263.52</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4886,10 +4882,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>263.52</v>
+        <v>266.3984225659204</v>
       </c>
       <c r="I110" t="n">
-        <v>263.52</v>
+        <v>266.3984225659204</v>
       </c>
     </row>
     <row r="111">
@@ -4898,27 +4894,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4927,39 +4923,39 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>263.52</v>
+        <v>266.3984225659204</v>
       </c>
       <c r="I111" t="n">
-        <v>303.52</v>
+        <v>285.2837510325635</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198a99ff590&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a99fc2d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4968,9 +4964,11 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>263.52</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>269.3258654704403</v>
+      </c>
+      <c r="I112" t="n">
+        <v>279.2837510325635</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4978,7 +4976,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4988,7 +4986,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4998,7 +4996,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5007,10 +5005,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>277.3919883184971</v>
+        <v>279.2837510325635</v>
       </c>
       <c r="I113" t="n">
-        <v>277.3919883184971</v>
+        <v>279.2837510325635</v>
       </c>
     </row>
     <row r="114">
@@ -5019,7 +5017,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5029,7 +5027,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5039,7 +5037,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5048,10 +5046,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>277.3919883184971</v>
+        <v>279.2837510325635</v>
       </c>
       <c r="I114" t="n">
-        <v>309.0574631674578</v>
+        <v>309.7795723619149</v>
       </c>
     </row>
     <row r="115">
@@ -5060,7 +5058,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5070,7 +5068,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5080,7 +5078,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5092,7 +5090,7 @@
         <v>281.52</v>
       </c>
       <c r="I115" t="n">
-        <v>286.4874631674578</v>
+        <v>287.2095723619149</v>
       </c>
     </row>
     <row r="116">
@@ -5101,7 +5099,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5111,7 +5109,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5121,7 +5119,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A582AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5130,10 +5128,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>283.3919883184971</v>
+        <v>285.2837510325635</v>
       </c>
       <c r="I116" t="n">
-        <v>294.459546308647</v>
+        <v>296.3513090227135</v>
       </c>
     </row>
     <row r="117">
@@ -5142,7 +5140,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5152,7 +5150,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5162,7 +5160,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5171,10 +5169,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>286.4874631674578</v>
+        <v>287.2095723619149</v>
       </c>
       <c r="I117" t="n">
-        <v>286.4874631674578</v>
+        <v>287.2095723619149</v>
       </c>
     </row>
     <row r="118">
@@ -5183,7 +5181,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5193,7 +5191,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5203,7 +5201,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5212,7 +5210,7 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>286.4874631674578</v>
+        <v>287.2095723619149</v>
       </c>
       <c r="I118" t="n">
         <v>321.52</v>
@@ -5224,7 +5222,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5234,7 +5232,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5244,7 +5242,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5253,10 +5251,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>292.4874631674578</v>
+        <v>293.2095723619149</v>
       </c>
       <c r="I119" t="n">
-        <v>303.0574631674578</v>
+        <v>303.7795723619149</v>
       </c>
     </row>
     <row r="120">
@@ -5265,7 +5263,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5275,7 +5273,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5285,7 +5283,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5294,10 +5292,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>294.459546308647</v>
+        <v>296.3513090227135</v>
       </c>
       <c r="I120" t="n">
-        <v>294.459546308647</v>
+        <v>296.3513090227135</v>
       </c>
     </row>
     <row r="121">
@@ -5306,7 +5304,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5316,7 +5314,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5326,7 +5324,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5335,10 +5333,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>294.459546308647</v>
+        <v>296.3513090227135</v>
       </c>
       <c r="I121" t="n">
-        <v>318.7606011537722</v>
+        <v>329.0245762286317</v>
       </c>
     </row>
     <row r="122">
@@ -5347,17 +5345,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5367,7 +5365,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5376,10 +5374,10 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>303.0574631674578</v>
+        <v>303.52</v>
       </c>
       <c r="I122" t="n">
-        <v>303.0574631674578</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="123">
@@ -5388,17 +5386,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5408,7 +5406,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5417,10 +5415,10 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>303.0574631674578</v>
+        <v>303.52</v>
       </c>
       <c r="I123" t="n">
-        <v>335.0838588946256</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="124">
@@ -5429,7 +5427,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5439,17 +5437,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5461,36 +5459,36 @@
         <v>303.52</v>
       </c>
       <c r="I124" t="n">
-        <v>303.52</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5499,10 +5497,10 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>303.52</v>
+        <v>303.7795723619149</v>
       </c>
       <c r="I125" t="n">
-        <v>303.52</v>
+        <v>303.7795723619149</v>
       </c>
     </row>
     <row r="126">
@@ -5511,27 +5509,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5540,19 +5538,19 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>303.52</v>
+        <v>303.7795723619149</v>
       </c>
       <c r="I126" t="n">
-        <v>343.52</v>
+        <v>334.1447107569983</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5562,7 +5560,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5572,7 +5570,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5581,39 +5579,39 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>309.0574631674578</v>
+        <v>309.7795723619149</v>
       </c>
       <c r="I127" t="n">
-        <v>312.7606011537722</v>
+        <v>323.0245762286317</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5622,19 +5620,19 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>312.7606011537722</v>
+        <v>321.52</v>
       </c>
       <c r="I128" t="n">
-        <v>312.7606011537722</v>
+        <v>328.1447107569983</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5644,17 +5642,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5663,39 +5661,39 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>312.7606011537722</v>
+        <v>323.0245762286317</v>
       </c>
       <c r="I129" t="n">
-        <v>351.6538588946256</v>
+        <v>323.0245762286317</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7FD2D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5704,19 +5702,19 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>318.7606011537722</v>
+        <v>323.0245762286317</v>
       </c>
       <c r="I130" t="n">
-        <v>326.9833232738958</v>
+        <v>350.7147107569983</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5726,17 +5724,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5745,39 +5743,39 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>321.52</v>
+        <v>328.1447107569983</v>
       </c>
       <c r="I131" t="n">
-        <v>329.0838588946256</v>
+        <v>328.1447107569983</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5786,19 +5784,19 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>326.9833232738958</v>
+        <v>328.1447107569983</v>
       </c>
       <c r="I132" t="n">
-        <v>326.9833232738958</v>
+        <v>361.52</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5808,17 +5806,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5827,39 +5825,39 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>326.9833232738958</v>
+        <v>329.0245762286317</v>
       </c>
       <c r="I133" t="n">
-        <v>374.5742825016994</v>
+        <v>337.2472983487553</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5868,39 +5866,39 @@
         </is>
       </c>
       <c r="H134" t="n">
-        <v>329.0838588946256</v>
+        <v>334.1447107569983</v>
       </c>
       <c r="I134" t="n">
-        <v>329.0838588946256</v>
+        <v>344.7147107569983</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5909,10 +5907,10 @@
         </is>
       </c>
       <c r="H135" t="n">
-        <v>329.0838588946256</v>
+        <v>337.2472983487553</v>
       </c>
       <c r="I135" t="n">
-        <v>361.52</v>
+        <v>337.2472983487553</v>
       </c>
     </row>
     <row r="136">
@@ -5921,27 +5919,27 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5950,10 +5948,10 @@
         </is>
       </c>
       <c r="H136" t="n">
-        <v>335.0838588946256</v>
+        <v>337.2472983487553</v>
       </c>
       <c r="I136" t="n">
-        <v>345.6538588946256</v>
+        <v>363.4552211046753</v>
       </c>
     </row>
     <row r="137">
@@ -5962,7 +5960,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5972,7 +5970,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5982,7 +5980,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6003,7 +6001,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6013,7 +6011,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6023,7 +6021,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6044,7 +6042,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6054,7 +6052,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6064,7 +6062,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6085,7 +6083,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6095,7 +6093,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6105,7 +6103,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6114,10 +6112,10 @@
         </is>
       </c>
       <c r="H140" t="n">
-        <v>345.6538588946256</v>
+        <v>344.7147107569983</v>
       </c>
       <c r="I140" t="n">
-        <v>345.6538588946256</v>
+        <v>344.7147107569983</v>
       </c>
     </row>
     <row r="141">
@@ -6126,7 +6124,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6136,7 +6134,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6146,7 +6144,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6155,10 +6153,10 @@
         </is>
       </c>
       <c r="H141" t="n">
-        <v>345.6538588946256</v>
+        <v>344.7147107569983</v>
       </c>
       <c r="I141" t="n">
-        <v>376.610665082042</v>
+        <v>377.3357518708947</v>
       </c>
     </row>
     <row r="142">
@@ -6167,7 +6165,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6177,7 +6175,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6187,7 +6185,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6196,39 +6194,39 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>351.6538588946256</v>
+        <v>350.7147107569983</v>
       </c>
       <c r="I142" t="n">
-        <v>368.5742825016994</v>
+        <v>357.4552211046753</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6237,19 +6235,19 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>361.52</v>
+        <v>357.4552211046753</v>
       </c>
       <c r="I143" t="n">
-        <v>370.610665082042</v>
+        <v>357.4552211046753</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6259,17 +6257,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6278,39 +6276,39 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>368.5742825016994</v>
+        <v>357.4552211046753</v>
       </c>
       <c r="I144" t="n">
-        <v>368.5742825016994</v>
+        <v>393.9057518708947</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6319,39 +6317,39 @@
         </is>
       </c>
       <c r="H145" t="n">
-        <v>368.5742825016994</v>
+        <v>361.52</v>
       </c>
       <c r="I145" t="n">
-        <v>393.180665082042</v>
+        <v>371.3357518708947</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6360,19 +6358,19 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>370.610665082042</v>
+        <v>363.4552211046753</v>
       </c>
       <c r="I146" t="n">
-        <v>370.610665082042</v>
+        <v>373.6053095222009</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6382,17 +6380,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6401,39 +6399,39 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>370.610665082042</v>
+        <v>371.3357518708947</v>
       </c>
       <c r="I147" t="n">
-        <v>401.52</v>
+        <v>371.3357518708947</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA98AD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6442,39 +6440,39 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>374.5742825016994</v>
+        <v>371.3357518708947</v>
       </c>
       <c r="I148" t="n">
-        <v>384.724370919225</v>
+        <v>401.52</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6483,39 +6481,39 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>376.610665082042</v>
+        <v>373.6053095222009</v>
       </c>
       <c r="I149" t="n">
-        <v>387.180665082042</v>
+        <v>373.6053095222009</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6524,39 +6522,39 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>383.52</v>
+        <v>373.6053095222009</v>
       </c>
       <c r="I150" t="n">
-        <v>383.52</v>
+        <v>419.2839115140445</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6565,19 +6563,19 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>383.52</v>
+        <v>377.3357518708947</v>
       </c>
       <c r="I151" t="n">
-        <v>383.52</v>
+        <v>387.9057518708947</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6587,17 +6585,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9cf4e90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6609,36 +6607,36 @@
         <v>383.52</v>
       </c>
       <c r="I152" t="n">
-        <v>423.52</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6647,39 +6645,39 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>384.724370919225</v>
+        <v>383.52</v>
       </c>
       <c r="I153" t="n">
-        <v>384.724370919225</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6688,10 +6686,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>384.724370919225</v>
+        <v>383.52</v>
       </c>
       <c r="I154" t="n">
-        <v>413.0994756787671</v>
+        <v>423.52</v>
       </c>
     </row>
     <row r="155">
@@ -6700,7 +6698,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6710,7 +6708,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6720,7 +6718,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6729,10 +6727,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>387.180665082042</v>
+        <v>387.9057518708947</v>
       </c>
       <c r="I155" t="n">
-        <v>387.180665082042</v>
+        <v>387.9057518708947</v>
       </c>
     </row>
     <row r="156">
@@ -6741,7 +6739,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6751,7 +6749,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6761,7 +6759,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6770,10 +6768,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>387.180665082042</v>
+        <v>387.9057518708947</v>
       </c>
       <c r="I156" t="n">
-        <v>411.0293640915307</v>
+        <v>412.8291410097431</v>
       </c>
     </row>
     <row r="157">
@@ -6782,7 +6780,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6792,7 +6790,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6802,7 +6800,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6811,10 +6809,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>393.180665082042</v>
+        <v>393.9057518708947</v>
       </c>
       <c r="I157" t="n">
-        <v>407.0994756787671</v>
+        <v>413.2839115140445</v>
       </c>
     </row>
     <row r="158">
@@ -6823,7 +6821,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6833,7 +6831,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6843,7 +6841,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6855,7 +6853,7 @@
         <v>401.52</v>
       </c>
       <c r="I158" t="n">
-        <v>405.0293640915307</v>
+        <v>406.8291410097431</v>
       </c>
     </row>
     <row r="159">
@@ -6864,7 +6862,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6874,7 +6872,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6884,7 +6882,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6893,10 +6891,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>405.0293640915307</v>
+        <v>406.8291410097431</v>
       </c>
       <c r="I159" t="n">
-        <v>405.0293640915307</v>
+        <v>406.8291410097431</v>
       </c>
     </row>
     <row r="160">
@@ -6905,7 +6903,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6915,7 +6913,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6925,7 +6923,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6934,39 +6932,39 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>405.0293640915307</v>
+        <v>406.8291410097431</v>
       </c>
       <c r="I160" t="n">
-        <v>558.52</v>
+        <v>441.52</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6975,19 +6973,19 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>407.0994756787671</v>
+        <v>412.8291410097431</v>
       </c>
       <c r="I161" t="n">
-        <v>407.0994756787671</v>
+        <v>423.3991410097431</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6997,17 +6995,17 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7016,39 +7014,39 @@
         </is>
       </c>
       <c r="H162" t="n">
-        <v>407.0994756787671</v>
+        <v>413.2839115140445</v>
       </c>
       <c r="I162" t="n">
-        <v>420.5293640915307</v>
+        <v>413.2839115140445</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7057,10 +7055,10 @@
         </is>
       </c>
       <c r="H163" t="n">
-        <v>411.0293640915307</v>
+        <v>413.2839115140445</v>
       </c>
       <c r="I163" t="n">
-        <v>414.5293640915307</v>
+        <v>429.3991410097431</v>
       </c>
     </row>
     <row r="164">
@@ -7069,7 +7067,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7079,7 +7077,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7089,7 +7087,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A7222050&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7098,10 +7096,10 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>413.0994756787671</v>
+        <v>419.2839115140445</v>
       </c>
       <c r="I164" t="n">
-        <v>422.1481184704694</v>
+        <v>428.3325543057468</v>
       </c>
     </row>
     <row r="165">
@@ -7110,7 +7108,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7120,7 +7118,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7130,7 +7128,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7139,10 +7137,10 @@
         </is>
       </c>
       <c r="H165" t="n">
-        <v>414.5293640915307</v>
+        <v>423.3991410097431</v>
       </c>
       <c r="I165" t="n">
-        <v>414.5293640915307</v>
+        <v>423.3991410097431</v>
       </c>
     </row>
     <row r="166">
@@ -7151,7 +7149,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7161,7 +7159,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7171,7 +7169,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7180,39 +7178,39 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>414.5293640915307</v>
+        <v>423.3991410097431</v>
       </c>
       <c r="I166" t="n">
-        <v>585.4367362513271</v>
+        <v>451.4922122802055</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7221,39 +7219,39 @@
         </is>
       </c>
       <c r="H167" t="n">
-        <v>420.5293640915307</v>
+        <v>423.52</v>
       </c>
       <c r="I167" t="n">
-        <v>441.3391579539539</v>
+        <v>423.52</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7262,19 +7260,17 @@
         </is>
       </c>
       <c r="H168" t="n">
-        <v>422.1481184704694</v>
-      </c>
-      <c r="I168" t="n">
-        <v>422.1481184704694</v>
-      </c>
+        <v>423.52</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7284,17 +7280,17 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7303,39 +7299,39 @@
         </is>
       </c>
       <c r="H169" t="n">
-        <v>422.1481184704694</v>
+        <v>428.3325543057468</v>
       </c>
       <c r="I169" t="n">
-        <v>447.3391579539539</v>
+        <v>428.3325543057468</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa0d7650&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7344,39 +7340,39 @@
         </is>
       </c>
       <c r="H170" t="n">
-        <v>423.52</v>
+        <v>428.3325543057468</v>
       </c>
       <c r="I170" t="n">
-        <v>423.52</v>
+        <v>462.2705728935611</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198a9cf4fd0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9cf5010&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7385,37 +7381,39 @@
         </is>
       </c>
       <c r="H171" t="n">
-        <v>423.52</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>429.3991410097431</v>
+      </c>
+      <c r="I171" t="n">
+        <v>456.2705728935611</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7424,39 +7422,39 @@
         </is>
       </c>
       <c r="H172" t="n">
-        <v>441.3391579539539</v>
+        <v>441.52</v>
       </c>
       <c r="I172" t="n">
-        <v>441.3391579539539</v>
+        <v>445.4922122802055</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7465,66 +7463,68 @@
         </is>
       </c>
       <c r="H173" t="n">
-        <v>441.3391579539539</v>
+        <v>445.4922122802055</v>
       </c>
       <c r="I173" t="n">
-        <v>602.0067362513272</v>
+        <v>445.4922122802055</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>&lt;robot (LabServer object) at 0x198aa0f64d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198aa0f4810&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr"/>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+        </is>
+      </c>
       <c r="G174" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>441.52</v>
-      </c>
-      <c r="I174" t="n">
-        <v>546.52</v>
-      </c>
+        <v>445.4922122802055</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA42A790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7543,29 +7543,29 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>447.3391579539539</v>
+        <v>451.4922122802055</v>
       </c>
       <c r="I175" t="n">
-        <v>456.4359391021604</v>
+        <v>462.0622122802055</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7584,29 +7584,29 @@
         </is>
       </c>
       <c r="H176" t="n">
-        <v>456.4359391021604</v>
+        <v>456.2705728935611</v>
       </c>
       <c r="I176" t="n">
-        <v>456.4359391021604</v>
+        <v>456.2705728935611</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7625,29 +7625,29 @@
         </is>
       </c>
       <c r="H177" t="n">
-        <v>456.4359391021604</v>
+        <v>456.2705728935611</v>
       </c>
       <c r="I177" t="n">
-        <v>618.4418205448883</v>
+        <v>468.0622122802055</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>&lt;robot (LabServer object) at 0x198aa0f64d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198aa0f44d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7666,29 +7666,29 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>546.52</v>
+        <v>462.0622122802055</v>
       </c>
       <c r="I178" t="n">
-        <v>546.52</v>
+        <v>462.0622122802055</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>&lt;robot (LabServer object) at 0x198aa0f64d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198aa0f6750&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7698,7 +7698,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7707,27 +7707,27 @@
         </is>
       </c>
       <c r="H179" t="n">
-        <v>546.52</v>
+        <v>462.0622122802055</v>
       </c>
       <c r="I179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9f9d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7746,39 +7746,39 @@
         </is>
       </c>
       <c r="H180" t="n">
-        <v>558.52</v>
+        <v>462.2705728935611</v>
       </c>
       <c r="I180" t="n">
-        <v>579.4367362513271</v>
+        <v>471.3673540417676</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9fa50&gt;</t>
+          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7787,39 +7787,39 @@
         </is>
       </c>
       <c r="H181" t="n">
-        <v>579.4367362513271</v>
+        <v>468.0622122802055</v>
       </c>
       <c r="I181" t="n">
-        <v>579.4367362513271</v>
+        <v>477.6093453689278</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198a9f9cad0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9e3d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7828,37 +7828,39 @@
         </is>
       </c>
       <c r="H182" t="n">
-        <v>579.4367362513271</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>471.3673540417676</v>
+      </c>
+      <c r="I182" t="n">
+        <v>471.3673540417676</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9f9c1d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7867,29 +7869,29 @@
         </is>
       </c>
       <c r="H183" t="n">
-        <v>585.4367362513271</v>
+        <v>471.3673540417676</v>
       </c>
       <c r="I183" t="n">
-        <v>596.0067362513272</v>
+        <v>483.6093453689278</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9f9f010&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7899,7 +7901,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7908,29 +7910,29 @@
         </is>
       </c>
       <c r="H184" t="n">
-        <v>596.0067362513272</v>
+        <v>477.6093453689278</v>
       </c>
       <c r="I184" t="n">
-        <v>596.0067362513272</v>
+        <v>477.6093453689278</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198a9f9df50&gt;</t>
+          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9f9c110&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -7940,7 +7942,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -7949,27 +7951,27 @@
         </is>
       </c>
       <c r="H185" t="n">
-        <v>596.0067362513272</v>
+        <v>477.6093453689278</v>
       </c>
       <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198a9fa64d0&gt;</t>
+          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7979,7 +7981,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7988,29 +7990,29 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>602.0067362513272</v>
+        <v>483.6093453689278</v>
       </c>
       <c r="I186" t="n">
-        <v>612.4418205448883</v>
+        <v>493.2199438708662</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198a9fa5950&gt;</t>
+          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8020,7 +8022,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8029,29 +8031,29 @@
         </is>
       </c>
       <c r="H187" t="n">
-        <v>612.4418205448883</v>
+        <v>493.2199438708662</v>
       </c>
       <c r="I187" t="n">
-        <v>612.4418205448883</v>
+        <v>493.2199438708662</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198a9fa5e50&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198a9fa5090&gt;</t>
+          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8061,7 +8063,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8070,130 +8072,9 @@
         </is>
       </c>
       <c r="H188" t="n">
-        <v>612.4418205448883</v>
+        <v>493.2199438708662</v>
       </c>
       <c r="I188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>&lt;Working (State) object at 0x198aa63d050&gt;</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8073590&gt;</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H189" t="n">
-        <v>618.4418205448883</v>
-      </c>
-      <c r="I189" t="n">
-        <v>628.0524190468267</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>&lt;Blocking (State) object at 0x198aa63c510&gt;</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Blocking</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H190" t="n">
-        <v>628.0524190468267</v>
-      </c>
-      <c r="I190" t="n">
-        <v>628.0524190468267</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>&lt;manual (LabServer object) at 0x198aa63c710&gt;</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>&lt;Starving (State) object at 0x198aa63dcd0&gt;</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Starving</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA989D50&gt;</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H191" t="n">
-        <v>628.0524190468267</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mappafinale.xlsx
+++ b/mappafinale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f6316bc390&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631734250&gt;</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;robot (LabServer object) at 0x198b2b69b90&gt;</t>
+          <t>&lt;robot (LabServer object) at 0x1f63164a150&gt;</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b69bd0&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f63164a310&gt;</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -582,7 +582,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>241.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -590,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +602,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631796850&gt;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -627,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,7 +639,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631794050&gt;</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -655,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>95.61294423578325</v>
+        <v>96.12046781140609</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,7 +676,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631732f50&gt;</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -692,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>112.1829442357833</v>
+        <v>105.6204678114061</v>
       </c>
     </row>
     <row r="8">
@@ -701,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -711,7 +713,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631731090&gt;</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -729,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>144.3993582605025</v>
+        <v>118.5506899155659</v>
       </c>
     </row>
     <row r="9">
@@ -738,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -748,7 +750,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6316bd610&gt;</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -775,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -785,7 +787,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6316bf910&gt;</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -795,7 +797,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -816,7 +818,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -826,7 +828,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f6316bc390&gt;</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -836,7 +838,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -857,7 +859,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -867,7 +869,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6316bd610&gt;</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -877,7 +879,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -898,7 +900,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -908,7 +910,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631736e10&gt;</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -935,7 +937,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -945,7 +947,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6316bf910&gt;</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -955,7 +957,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -976,7 +978,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -986,7 +988,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f6316bc390&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -996,7 +998,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1017,7 +1019,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1027,7 +1029,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6316bd610&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1037,7 +1039,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1058,7 +1060,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1068,7 +1070,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6316bf910&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1078,7 +1080,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1099,7 +1101,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1109,7 +1111,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f6316bc390&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1119,7 +1121,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1140,7 +1142,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1150,7 +1152,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6316bd610&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1160,7 +1162,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1181,7 +1183,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1191,7 +1193,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6316bf910&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1201,7 +1203,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1222,7 +1224,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1232,7 +1234,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f6316bc390&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1242,7 +1244,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1263,7 +1265,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1273,7 +1275,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6316bd610&gt;</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1283,7 +1285,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1304,7 +1306,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1314,7 +1316,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6316bf910&gt;</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1324,7 +1326,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1345,7 +1347,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1355,7 +1357,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631734fd0&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1365,7 +1367,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1386,7 +1388,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1396,7 +1398,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631734250&gt;</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1406,7 +1408,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1427,7 +1429,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1437,7 +1439,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631736e10&gt;</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1447,7 +1449,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1468,7 +1470,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1478,7 +1480,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f6316bc390&gt;</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1488,7 +1490,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1509,7 +1511,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1519,7 +1521,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6316bd610&gt;</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1529,7 +1531,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1550,7 +1552,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1560,7 +1562,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6316bf910&gt;</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1570,7 +1572,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1591,7 +1593,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1601,7 +1603,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631796950&gt;</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1619,7 +1621,7 @@
         <v>81.52</v>
       </c>
       <c r="I30" t="n">
-        <v>89.61294423578325</v>
+        <v>90.12046781140609</v>
       </c>
     </row>
     <row r="31">
@@ -1628,7 +1630,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1638,7 +1640,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317963d0&gt;</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1648,7 +1650,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1657,10 +1659,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>89.61294423578325</v>
+        <v>90.12046781140609</v>
       </c>
       <c r="I31" t="n">
-        <v>89.61294423578325</v>
+        <v>90.12046781140609</v>
       </c>
     </row>
     <row r="32">
@@ -1669,7 +1671,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1679,7 +1681,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631796850&gt;</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1689,7 +1691,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1698,7 +1700,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>89.61294423578325</v>
+        <v>90.12046781140609</v>
       </c>
       <c r="I32" t="n">
         <v>121.52</v>
@@ -1710,7 +1712,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1720,7 +1722,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317973d0&gt;</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1735,10 +1737,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>95.61294423578325</v>
+        <v>96.12046781140609</v>
       </c>
       <c r="I33" t="n">
-        <v>106.1829442357833</v>
+        <v>99.62046781140609</v>
       </c>
     </row>
     <row r="34">
@@ -1747,17 +1749,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317941d0&gt;</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1767,7 +1769,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1776,10 +1778,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>103.52</v>
+        <v>99.62046781140609</v>
       </c>
       <c r="I34" t="n">
-        <v>103.52</v>
+        <v>99.62046781140609</v>
       </c>
     </row>
     <row r="35">
@@ -1788,17 +1790,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631794050&gt;</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1808,7 +1810,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1817,10 +1819,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>103.52</v>
+        <v>99.62046781140609</v>
       </c>
       <c r="I35" t="n">
-        <v>103.52</v>
+        <v>138.2766237331961</v>
       </c>
     </row>
     <row r="36">
@@ -1829,7 +1831,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1839,17 +1841,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631734fd0&gt;</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1861,26 +1863,26 @@
         <v>103.52</v>
       </c>
       <c r="I36" t="n">
-        <v>143.52</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631734250&gt;</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1890,7 +1892,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1907,21 +1909,21 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631736e10&gt;</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1931,7 +1933,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1943,36 +1945,36 @@
         <v>103.52</v>
       </c>
       <c r="I38" t="n">
-        <v>114.04</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f6316bc390&gt;</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1981,10 +1983,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>106.1829442357833</v>
+        <v>103.52</v>
       </c>
       <c r="I39" t="n">
-        <v>106.1829442357833</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="40">
@@ -1993,27 +1995,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6316bd610&gt;</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2022,19 +2024,19 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>106.1829442357833</v>
+        <v>103.52</v>
       </c>
       <c r="I40" t="n">
-        <v>148.358946411707</v>
+        <v>114.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2044,7 +2046,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631733fd0&gt;</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2059,10 +2061,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>112.1829442357833</v>
+        <v>105.6204678114061</v>
       </c>
       <c r="I41" t="n">
-        <v>138.3993582605025</v>
+        <v>112.5506899155659</v>
       </c>
     </row>
     <row r="42">
@@ -2071,17 +2073,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317328d0&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2091,7 +2093,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2100,39 +2102,39 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>114.04</v>
+        <v>112.5506899155659</v>
       </c>
       <c r="I42" t="n">
-        <v>143.52</v>
+        <v>112.5506899155659</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631732f50&gt;</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2141,29 +2143,29 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>121.52</v>
+        <v>112.5506899155659</v>
       </c>
       <c r="I43" t="n">
-        <v>142.358946411707</v>
+        <v>154.8466237331961</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6316bf910&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2173,7 +2175,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2182,60 +2184,56 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>138.3993582605025</v>
+        <v>114.04</v>
       </c>
       <c r="I44" t="n">
-        <v>138.3993582605025</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317339d0&gt;</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Starving</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>138.3993582605025</v>
+        <v>118.5506899155659</v>
       </c>
       <c r="I45" t="n">
-        <v>164.928946411707</v>
+        <v>129.5147422615336</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2245,17 +2243,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631796950&gt;</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2264,39 +2262,39 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>142.358946411707</v>
+        <v>121.52</v>
       </c>
       <c r="I46" t="n">
-        <v>142.358946411707</v>
+        <v>132.2766237331961</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631730d10&gt;</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2305,39 +2303,39 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>142.358946411707</v>
+        <v>129.5147422615336</v>
       </c>
       <c r="I47" t="n">
-        <v>161.52</v>
+        <v>129.5147422615336</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631731090&gt;</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2346,39 +2344,39 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>143.52</v>
+        <v>129.5147422615336</v>
       </c>
       <c r="I48" t="n">
-        <v>143.52</v>
+        <v>166.028874583609</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317963d0&gt;</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2387,39 +2385,39 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>143.52</v>
+        <v>132.2766237331961</v>
       </c>
       <c r="I49" t="n">
-        <v>143.52</v>
+        <v>132.2766237331961</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631796850&gt;</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2428,39 +2426,39 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>143.52</v>
+        <v>132.2766237331961</v>
       </c>
       <c r="I50" t="n">
-        <v>183.52</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317973d0&gt;</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2469,39 +2467,39 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>143.52</v>
+        <v>138.2766237331961</v>
       </c>
       <c r="I51" t="n">
-        <v>143.52</v>
+        <v>148.8466237331961</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631734fd0&gt;</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2513,7 +2511,7 @@
         <v>143.52</v>
       </c>
       <c r="I52" t="n">
-        <v>154.04</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="53">
@@ -2522,54 +2520,58 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631734250&gt;</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>144.3993582605025</v>
+        <v>143.52</v>
       </c>
       <c r="I53" t="n">
-        <v>155.3634106064702</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631736e10&gt;</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2579,7 +2581,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2588,19 +2590,19 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>148.358946411707</v>
+        <v>143.52</v>
       </c>
       <c r="I54" t="n">
-        <v>158.928946411707</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2610,17 +2612,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f6316bc390&gt;</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2629,39 +2631,39 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>154.04</v>
+        <v>143.52</v>
       </c>
       <c r="I55" t="n">
-        <v>183.52</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6316bd610&gt;</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2670,39 +2672,39 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>155.3634106064702</v>
+        <v>143.52</v>
       </c>
       <c r="I56" t="n">
-        <v>155.3634106064702</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317941d0&gt;</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2711,19 +2713,19 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>155.3634106064702</v>
+        <v>148.8466237331961</v>
       </c>
       <c r="I57" t="n">
-        <v>178.3504060776352</v>
+        <v>148.8466237331961</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2733,17 +2735,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631794050&gt;</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2752,39 +2754,39 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>158.928946411707</v>
+        <v>148.8466237331961</v>
       </c>
       <c r="I58" t="n">
-        <v>158.928946411707</v>
+        <v>174.6250296290778</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6316bf910&gt;</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2793,29 +2795,29 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>158.928946411707</v>
+        <v>154.04</v>
       </c>
       <c r="I59" t="n">
-        <v>171.7829212812041</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631733fd0&gt;</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2825,7 +2827,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2834,19 +2836,19 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>161.52</v>
+        <v>154.8466237331961</v>
       </c>
       <c r="I60" t="n">
-        <v>165.7829212812041</v>
+        <v>160.028874583609</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2856,17 +2858,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317328d0&gt;</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2875,39 +2877,39 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>164.928946411707</v>
+        <v>160.028874583609</v>
       </c>
       <c r="I61" t="n">
-        <v>172.3504060776352</v>
+        <v>160.028874583609</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631732f50&gt;</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2916,19 +2918,19 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>165.7829212812041</v>
+        <v>160.028874583609</v>
       </c>
       <c r="I62" t="n">
-        <v>165.7829212812041</v>
+        <v>184.1250296290778</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2938,17 +2940,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631796950&gt;</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2957,10 +2959,10 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>165.7829212812041</v>
+        <v>161.52</v>
       </c>
       <c r="I63" t="n">
-        <v>201.52</v>
+        <v>168.6250296290778</v>
       </c>
     </row>
     <row r="64">
@@ -2969,17 +2971,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317339d0&gt;</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2989,7 +2991,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F631E4AA10&gt;</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2998,10 +3000,10 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>171.7829212812041</v>
+        <v>166.028874583609</v>
       </c>
       <c r="I64" t="n">
-        <v>182.3529212812041</v>
+        <v>175.6290317919762</v>
       </c>
     </row>
     <row r="65">
@@ -3010,17 +3012,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317963d0&gt;</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3030,7 +3032,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3039,10 +3041,10 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>172.3504060776352</v>
+        <v>168.6250296290778</v>
       </c>
       <c r="I65" t="n">
-        <v>172.3504060776352</v>
+        <v>168.6250296290778</v>
       </c>
     </row>
     <row r="66">
@@ -3051,17 +3053,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631796850&gt;</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3071,7 +3073,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3080,10 +3082,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>172.3504060776352</v>
+        <v>168.6250296290778</v>
       </c>
       <c r="I66" t="n">
-        <v>188.3529212812041</v>
+        <v>201.52</v>
       </c>
     </row>
     <row r="67">
@@ -3092,17 +3094,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317973d0&gt;</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3112,7 +3114,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3121,10 +3123,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>178.3504060776352</v>
+        <v>174.6250296290778</v>
       </c>
       <c r="I67" t="n">
-        <v>187.9505632860024</v>
+        <v>178.1250296290778</v>
       </c>
     </row>
     <row r="68">
@@ -3133,17 +3135,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631730d10&gt;</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3153,7 +3155,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3162,29 +3164,29 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>182.3529212812041</v>
+        <v>175.6290317919762</v>
       </c>
       <c r="I68" t="n">
-        <v>182.3529212812041</v>
+        <v>175.6290317919762</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631731090&gt;</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3194,7 +3196,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3203,29 +3205,29 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>182.3529212812041</v>
+        <v>175.6290317919762</v>
       </c>
       <c r="I69" t="n">
-        <v>223.6288469846695</v>
+        <v>205.4886939250067</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317941d0&gt;</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3235,7 +3237,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3244,29 +3246,29 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>183.52</v>
+        <v>178.1250296290778</v>
       </c>
       <c r="I70" t="n">
-        <v>183.52</v>
+        <v>178.1250296290778</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631794050&gt;</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3276,7 +3278,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3285,19 +3287,19 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>183.52</v>
+        <v>178.1250296290778</v>
       </c>
       <c r="I71" t="n">
-        <v>183.52</v>
+        <v>212.2481853883034</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3307,17 +3309,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631734fd0&gt;</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3329,7 +3331,7 @@
         <v>183.52</v>
       </c>
       <c r="I72" t="n">
-        <v>223.52</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="73">
@@ -3338,17 +3340,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631734250&gt;</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3358,7 +3360,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3375,21 +3377,21 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631736e10&gt;</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3399,7 +3401,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3411,36 +3413,36 @@
         <v>183.52</v>
       </c>
       <c r="I74" t="n">
-        <v>194.04</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f6316bc390&gt;</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3449,39 +3451,39 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>187.9505632860024</v>
+        <v>183.52</v>
       </c>
       <c r="I75" t="n">
-        <v>187.9505632860024</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6316bd610&gt;</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3490,10 +3492,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>187.9505632860024</v>
+        <v>183.52</v>
       </c>
       <c r="I76" t="n">
-        <v>208.5751736593068</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="77">
@@ -3502,7 +3504,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3512,7 +3514,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631733fd0&gt;</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3522,7 +3524,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3531,10 +3533,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>188.3529212812041</v>
+        <v>184.1250296290778</v>
       </c>
       <c r="I77" t="n">
-        <v>202.5751736593068</v>
+        <v>199.4886939250067</v>
       </c>
     </row>
     <row r="78">
@@ -3543,7 +3545,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3553,7 +3555,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6316bf910&gt;</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3563,7 +3565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3580,31 +3582,31 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317328d0&gt;</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3613,19 +3615,19 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>201.52</v>
+        <v>199.4886939250067</v>
       </c>
       <c r="I79" t="n">
-        <v>217.6288469846695</v>
+        <v>199.4886939250067</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3635,17 +3637,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631732f50&gt;</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3654,39 +3656,39 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>202.5751736593068</v>
+        <v>199.4886939250067</v>
       </c>
       <c r="I80" t="n">
-        <v>202.5751736593068</v>
+        <v>228.8181853883034</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631796950&gt;</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3695,10 +3697,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>202.5751736593068</v>
+        <v>201.52</v>
       </c>
       <c r="I81" t="n">
-        <v>240.1988469846695</v>
+        <v>206.2481853883034</v>
       </c>
     </row>
     <row r="82">
@@ -3707,7 +3709,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3717,7 +3719,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317339d0&gt;</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3727,7 +3729,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F6322CD910&gt;</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3736,10 +3738,10 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>208.5751736593068</v>
+        <v>205.4886939250067</v>
       </c>
       <c r="I82" t="n">
-        <v>218.7539116434126</v>
+        <v>215.6674319091125</v>
       </c>
     </row>
     <row r="83">
@@ -3748,7 +3750,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3758,7 +3760,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317963d0&gt;</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3768,7 +3770,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3777,10 +3779,10 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>217.6288469846695</v>
+        <v>206.2481853883034</v>
       </c>
       <c r="I83" t="n">
-        <v>217.6288469846695</v>
+        <v>206.2481853883034</v>
       </c>
     </row>
     <row r="84">
@@ -3789,7 +3791,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3799,7 +3801,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631796850&gt;</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3809,7 +3811,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3818,39 +3820,39 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>217.6288469846695</v>
+        <v>206.2481853883034</v>
       </c>
       <c r="I84" t="n">
-        <v>241.52</v>
+        <v>321.52</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317973d0&gt;</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3859,19 +3861,19 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>218.7539116434126</v>
+        <v>212.2481853883034</v>
       </c>
       <c r="I85" t="n">
-        <v>218.7539116434126</v>
+        <v>222.8181853883034</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3881,17 +3883,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631730d10&gt;</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3900,39 +3902,39 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>218.7539116434126</v>
+        <v>215.6674319091125</v>
       </c>
       <c r="I86" t="n">
-        <v>254.9575293667189</v>
+        <v>215.6674319091125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631731090&gt;</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3941,39 +3943,39 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>223.52</v>
+        <v>215.6674319091125</v>
       </c>
       <c r="I87" t="n">
-        <v>223.52</v>
+        <v>246.126376975729</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317941d0&gt;</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3982,39 +3984,39 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>223.52</v>
+        <v>222.8181853883034</v>
       </c>
       <c r="I88" t="n">
-        <v>223.52</v>
+        <v>222.8181853883034</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631794050&gt;</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4023,39 +4025,39 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>223.52</v>
+        <v>222.8181853883034</v>
       </c>
       <c r="I89" t="n">
-        <v>263.52</v>
+        <v>335.880554932576</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631734fd0&gt;</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4072,31 +4074,31 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b59610&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631734250&gt;</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4108,26 +4110,26 @@
         <v>223.52</v>
       </c>
       <c r="I91" t="n">
-        <v>234.04</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631736e10&gt;</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4137,7 +4139,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4146,19 +4148,19 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>223.6288469846695</v>
+        <v>223.52</v>
       </c>
       <c r="I92" t="n">
-        <v>234.1988469846695</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4168,17 +4170,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b59650&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f6316bc390&gt;</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4187,39 +4189,39 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>234.04</v>
+        <v>223.52</v>
       </c>
       <c r="I93" t="n">
-        <v>263.52</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6316bd610&gt;</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4228,39 +4230,39 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>234.1988469846695</v>
+        <v>223.52</v>
       </c>
       <c r="I94" t="n">
-        <v>234.1988469846695</v>
+        <v>234.04</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631733fd0&gt;</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4269,39 +4271,39 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>234.1988469846695</v>
+        <v>228.8181853883034</v>
       </c>
       <c r="I95" t="n">
-        <v>252.7558654704403</v>
+        <v>240.126376975729</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6316bf910&gt;</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4310,39 +4312,39 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>240.1988469846695</v>
+        <v>234.04</v>
       </c>
       <c r="I96" t="n">
-        <v>248.9575293667189</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317328d0&gt;</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4351,39 +4353,39 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>241.52</v>
+        <v>240.126376975729</v>
       </c>
       <c r="I97" t="n">
-        <v>246.7558654704403</v>
+        <v>240.126376975729</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631732f50&gt;</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4392,80 +4394,76 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>246.7558654704403</v>
+        <v>240.126376975729</v>
       </c>
       <c r="I98" t="n">
-        <v>246.7558654704403</v>
+        <v>352.450554932576</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;robot (LabServer object) at 0x1f63164a150&gt;</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
+          <t>&lt;Working (State) object at 0x1f63164ae90&gt;</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Starving</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>246.7558654704403</v>
+        <v>241.52</v>
       </c>
       <c r="I99" t="n">
-        <v>281.52</v>
+        <v>349.52</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317339d0&gt;</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F2D0&gt;</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4474,39 +4472,39 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>248.9575293667189</v>
+        <v>246.126376975729</v>
       </c>
       <c r="I100" t="n">
-        <v>248.9575293667189</v>
+        <v>257.5672701749305</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631730d10&gt;</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4515,39 +4513,39 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>248.9575293667189</v>
+        <v>257.5672701749305</v>
       </c>
       <c r="I101" t="n">
-        <v>269.3258654704403</v>
+        <v>257.5672701749305</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631731090&gt;</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4556,39 +4554,39 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>252.7558654704403</v>
+        <v>257.5672701749305</v>
       </c>
       <c r="I102" t="n">
-        <v>263.3258654704403</v>
+        <v>362.3699736977689</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631734fd0&gt;</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4597,39 +4595,39 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>254.9575293667189</v>
+        <v>263.52</v>
       </c>
       <c r="I103" t="n">
-        <v>266.3984225659204</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631734250&gt;</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4638,39 +4636,39 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>263.3258654704403</v>
+        <v>263.52</v>
       </c>
       <c r="I104" t="n">
-        <v>263.3258654704403</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631736e10&gt;</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4679,39 +4677,39 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>263.3258654704403</v>
+        <v>263.52</v>
       </c>
       <c r="I105" t="n">
-        <v>293.2095723619149</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;front (LabServer object) at 0x1f6316be9d0&gt;</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f6316bc390&gt;</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4722,17 +4720,15 @@
       <c r="H106" t="n">
         <v>263.52</v>
       </c>
-      <c r="I106" t="n">
-        <v>263.52</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4742,17 +4738,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631734fd0&gt;</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4761,19 +4757,19 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>263.52</v>
+        <v>303.52</v>
       </c>
       <c r="I107" t="n">
-        <v>263.52</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4783,17 +4779,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631734250&gt;</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4802,7 +4798,7 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>263.52</v>
+        <v>303.52</v>
       </c>
       <c r="I108" t="n">
         <v>303.52</v>
@@ -4810,31 +4806,31 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x198b2b59290&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b59490&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631736e10&gt;</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4843,37 +4839,39 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>263.52</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>303.52</v>
+      </c>
+      <c r="I109" t="n">
+        <v>343.52</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631796950&gt;</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4882,39 +4880,39 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>266.3984225659204</v>
+        <v>321.52</v>
       </c>
       <c r="I110" t="n">
-        <v>266.3984225659204</v>
+        <v>329.880554932576</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317963d0&gt;</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4923,39 +4921,39 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>266.3984225659204</v>
+        <v>329.880554932576</v>
       </c>
       <c r="I111" t="n">
-        <v>285.2837510325635</v>
+        <v>329.880554932576</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631796850&gt;</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4964,39 +4962,39 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>269.3258654704403</v>
+        <v>329.880554932576</v>
       </c>
       <c r="I112" t="n">
-        <v>279.2837510325635</v>
+        <v>361.52</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317973d0&gt;</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5005,39 +5003,39 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>279.2837510325635</v>
+        <v>335.880554932576</v>
       </c>
       <c r="I113" t="n">
-        <v>279.2837510325635</v>
+        <v>346.450554932576</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631734fd0&gt;</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5046,39 +5044,39 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>279.2837510325635</v>
+        <v>343.52</v>
       </c>
       <c r="I114" t="n">
-        <v>309.7795723619149</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631734250&gt;</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5087,29 +5085,29 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>281.52</v>
+        <v>343.52</v>
       </c>
       <c r="I115" t="n">
-        <v>287.2095723619149</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631736e10&gt;</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5119,7 +5117,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5128,29 +5126,29 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>285.2837510325635</v>
+        <v>343.52</v>
       </c>
       <c r="I116" t="n">
-        <v>296.3513090227135</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317941d0&gt;</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5160,7 +5158,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5169,29 +5167,29 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>287.2095723619149</v>
+        <v>346.450554932576</v>
       </c>
       <c r="I117" t="n">
-        <v>287.2095723619149</v>
+        <v>346.450554932576</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631794050&gt;</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5201,7 +5199,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5210,39 +5208,39 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>287.2095723619149</v>
+        <v>346.450554932576</v>
       </c>
       <c r="I118" t="n">
-        <v>321.52</v>
+        <v>378.4191078931762</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;robot (LabServer object) at 0x1f63164a150&gt;</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f63164a110&gt;</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5251,39 +5249,39 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>293.2095723619149</v>
+        <v>349.52</v>
       </c>
       <c r="I119" t="n">
-        <v>303.7795723619149</v>
+        <v>349.52</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;robot (LabServer object) at 0x1f63164a150&gt;</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f63164a310&gt;</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5292,39 +5290,39 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>296.3513090227135</v>
+        <v>349.52</v>
       </c>
       <c r="I120" t="n">
-        <v>296.3513090227135</v>
+        <v>349.52</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;robot (LabServer object) at 0x1f63164a150&gt;</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
+          <t>&lt;Working (State) object at 0x1f63164ae90&gt;</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5333,39 +5331,39 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>296.3513090227135</v>
+        <v>349.52</v>
       </c>
       <c r="I121" t="n">
-        <v>329.0245762286317</v>
+        <v>457.52</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631733fd0&gt;</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5374,39 +5372,39 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>303.52</v>
+        <v>352.450554932576</v>
       </c>
       <c r="I122" t="n">
-        <v>303.52</v>
+        <v>356.3699736977689</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317328d0&gt;</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5415,39 +5413,39 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>303.52</v>
+        <v>356.3699736977689</v>
       </c>
       <c r="I123" t="n">
-        <v>303.52</v>
+        <v>356.3699736977689</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631732f50&gt;</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5456,39 +5454,39 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>303.52</v>
+        <v>356.3699736977689</v>
       </c>
       <c r="I124" t="n">
-        <v>343.52</v>
+        <v>387.9191078931762</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631796950&gt;</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5497,39 +5495,39 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>303.7795723619149</v>
+        <v>361.52</v>
       </c>
       <c r="I125" t="n">
-        <v>303.7795723619149</v>
+        <v>372.4191078931762</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317339d0&gt;</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ECD0&gt;</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5538,39 +5536,39 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>303.7795723619149</v>
+        <v>362.3699736977689</v>
       </c>
       <c r="I126" t="n">
-        <v>334.1447107569983</v>
+        <v>372.5200621152945</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317963d0&gt;</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5579,19 +5577,19 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>309.7795723619149</v>
+        <v>372.4191078931762</v>
       </c>
       <c r="I127" t="n">
-        <v>323.0245762286317</v>
+        <v>372.4191078931762</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5601,17 +5599,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631796850&gt;</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5620,39 +5618,39 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>321.52</v>
+        <v>372.4191078931762</v>
       </c>
       <c r="I128" t="n">
-        <v>328.1447107569983</v>
+        <v>372.4191078931762</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631796950&gt;</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5661,39 +5659,39 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>323.0245762286317</v>
+        <v>372.4191078931762</v>
       </c>
       <c r="I129" t="n">
-        <v>323.0245762286317</v>
+        <v>377.6108678179593</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631730d10&gt;</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5702,39 +5700,39 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>323.0245762286317</v>
+        <v>372.5200621152945</v>
       </c>
       <c r="I130" t="n">
-        <v>350.7147107569983</v>
+        <v>372.5200621152945</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631731090&gt;</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5743,19 +5741,19 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>328.1447107569983</v>
+        <v>372.5200621152945</v>
       </c>
       <c r="I131" t="n">
-        <v>328.1447107569983</v>
+        <v>411.9688272175189</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5765,17 +5763,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317963d0&gt;</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5784,39 +5782,39 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>328.1447107569983</v>
+        <v>377.6108678179593</v>
       </c>
       <c r="I132" t="n">
-        <v>361.52</v>
+        <v>378.4191078931762</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631796850&gt;</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5825,19 +5823,19 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>329.0245762286317</v>
+        <v>378.4191078931762</v>
       </c>
       <c r="I133" t="n">
-        <v>337.2472983487553</v>
+        <v>401.52</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5847,7 +5845,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317973d0&gt;</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5857,7 +5855,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5866,29 +5864,29 @@
         </is>
       </c>
       <c r="H134" t="n">
-        <v>334.1447107569983</v>
+        <v>378.4191078931762</v>
       </c>
       <c r="I134" t="n">
-        <v>344.7147107569983</v>
+        <v>381.9191078931762</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317941d0&gt;</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5898,7 +5896,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5907,29 +5905,29 @@
         </is>
       </c>
       <c r="H135" t="n">
-        <v>337.2472983487553</v>
+        <v>381.9191078931762</v>
       </c>
       <c r="I135" t="n">
-        <v>337.2472983487553</v>
+        <v>381.9191078931762</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631794050&gt;</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5939,7 +5937,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5948,19 +5946,19 @@
         </is>
       </c>
       <c r="H136" t="n">
-        <v>337.2472983487553</v>
+        <v>381.9191078931762</v>
       </c>
       <c r="I136" t="n">
-        <v>363.4552211046753</v>
+        <v>384.4191078931762</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5970,7 +5968,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631734fd0&gt;</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5980,7 +5978,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5989,19 +5987,19 @@
         </is>
       </c>
       <c r="H137" t="n">
-        <v>343.52</v>
+        <v>383.52</v>
       </c>
       <c r="I137" t="n">
-        <v>343.52</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6011,7 +6009,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631734250&gt;</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6021,7 +6019,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6030,19 +6028,19 @@
         </is>
       </c>
       <c r="H138" t="n">
-        <v>343.52</v>
+        <v>383.52</v>
       </c>
       <c r="I138" t="n">
-        <v>343.52</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6052,7 +6050,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631736e10&gt;</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6062,7 +6060,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6071,19 +6069,19 @@
         </is>
       </c>
       <c r="H139" t="n">
-        <v>343.52</v>
+        <v>383.52</v>
       </c>
       <c r="I139" t="n">
-        <v>383.52</v>
+        <v>423.52</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6093,17 +6091,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317973d0&gt;</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6112,19 +6110,19 @@
         </is>
       </c>
       <c r="H140" t="n">
-        <v>344.7147107569983</v>
+        <v>384.4191078931762</v>
       </c>
       <c r="I140" t="n">
-        <v>344.7147107569983</v>
+        <v>387.9191078931762</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6134,17 +6132,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317941d0&gt;</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6153,39 +6151,39 @@
         </is>
       </c>
       <c r="H141" t="n">
-        <v>344.7147107569983</v>
+        <v>387.9191078931762</v>
       </c>
       <c r="I141" t="n">
-        <v>377.3357518708947</v>
+        <v>387.9191078931762</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631794050&gt;</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6194,19 +6192,19 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>350.7147107569983</v>
+        <v>387.9191078931762</v>
       </c>
       <c r="I142" t="n">
-        <v>357.4552211046753</v>
+        <v>417.7680312127101</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6216,17 +6214,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631733fd0&gt;</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6235,39 +6233,39 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>357.4552211046753</v>
+        <v>387.9191078931762</v>
       </c>
       <c r="I143" t="n">
-        <v>357.4552211046753</v>
+        <v>405.9688272175189</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631796950&gt;</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6276,39 +6274,39 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>357.4552211046753</v>
+        <v>401.52</v>
       </c>
       <c r="I144" t="n">
-        <v>393.9057518708947</v>
+        <v>411.7680312127101</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317328d0&gt;</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6317,39 +6315,39 @@
         </is>
       </c>
       <c r="H145" t="n">
-        <v>361.52</v>
+        <v>405.9688272175189</v>
       </c>
       <c r="I145" t="n">
-        <v>371.3357518708947</v>
+        <v>405.9688272175189</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631732f50&gt;</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6358,39 +6356,39 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>363.4552211046753</v>
+        <v>405.9688272175189</v>
       </c>
       <c r="I146" t="n">
-        <v>373.6053095222009</v>
+        <v>405.9688272175189</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631733fd0&gt;</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6399,19 +6397,19 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>371.3357518708947</v>
+        <v>405.9688272175189</v>
       </c>
       <c r="I147" t="n">
-        <v>371.3357518708947</v>
+        <v>437.4059060088509</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6421,17 +6419,17 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317963d0&gt;</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6440,39 +6438,39 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>371.3357518708947</v>
+        <v>411.7680312127101</v>
       </c>
       <c r="I148" t="n">
-        <v>401.52</v>
+        <v>411.7680312127101</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631796850&gt;</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6481,19 +6479,19 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>373.6053095222009</v>
+        <v>411.7680312127101</v>
       </c>
       <c r="I149" t="n">
-        <v>373.6053095222009</v>
+        <v>441.52</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6503,17 +6501,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317339d0&gt;</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173ED90&gt;</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6522,19 +6520,19 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>373.6053095222009</v>
+        <v>411.9688272175189</v>
       </c>
       <c r="I150" t="n">
-        <v>419.2839115140445</v>
+        <v>423.0363852076689</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6544,7 +6542,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317973d0&gt;</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6554,7 +6552,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6563,29 +6561,29 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>377.3357518708947</v>
+        <v>417.7680312127101</v>
       </c>
       <c r="I151" t="n">
-        <v>387.9057518708947</v>
+        <v>428.3380312127101</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631730d10&gt;</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6595,7 +6593,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6604,29 +6602,29 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>383.52</v>
+        <v>423.0363852076689</v>
       </c>
       <c r="I152" t="n">
-        <v>383.52</v>
+        <v>423.0363852076689</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631731090&gt;</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6636,7 +6634,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6645,19 +6643,19 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>383.52</v>
+        <v>423.0363852076689</v>
       </c>
       <c r="I153" t="n">
-        <v>383.52</v>
+        <v>443.4059060088509</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6667,17 +6665,17 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b5b250&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631734fd0&gt;</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6686,7 +6684,7 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>383.52</v>
+        <v>423.52</v>
       </c>
       <c r="I154" t="n">
         <v>423.52</v>
@@ -6694,31 +6692,31 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x1f631737710&gt;</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631734250&gt;</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6727,19 +6725,17 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>387.9057518708947</v>
-      </c>
-      <c r="I155" t="n">
-        <v>387.9057518708947</v>
-      </c>
+        <v>423.52</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6749,17 +6745,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317941d0&gt;</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6768,39 +6764,39 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>387.9057518708947</v>
+        <v>428.3380312127101</v>
       </c>
       <c r="I156" t="n">
-        <v>412.8291410097431</v>
+        <v>428.3380312127101</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631794050&gt;</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6809,39 +6805,39 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>393.9057518708947</v>
+        <v>428.3380312127101</v>
       </c>
       <c r="I157" t="n">
-        <v>413.2839115140445</v>
+        <v>455.5900957614942</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317328d0&gt;</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6850,39 +6846,39 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>401.52</v>
+        <v>437.4059060088509</v>
       </c>
       <c r="I158" t="n">
-        <v>406.8291410097431</v>
+        <v>437.4059060088509</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631732f50&gt;</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6891,39 +6887,39 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>406.8291410097431</v>
+        <v>437.4059060088509</v>
       </c>
       <c r="I159" t="n">
-        <v>406.8291410097431</v>
+        <v>437.4059060088509</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631733fd0&gt;</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6932,29 +6928,29 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>406.8291410097431</v>
+        <v>437.4059060088509</v>
       </c>
       <c r="I160" t="n">
-        <v>441.52</v>
+        <v>443.1414133103942</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631796950&gt;</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6964,7 +6960,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6973,19 +6969,19 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>412.8291410097431</v>
+        <v>441.52</v>
       </c>
       <c r="I161" t="n">
-        <v>423.3991410097431</v>
+        <v>449.5900957614942</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6995,7 +6991,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317328d0&gt;</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7005,7 +7001,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7014,19 +7010,19 @@
         </is>
       </c>
       <c r="H162" t="n">
-        <v>413.2839115140445</v>
+        <v>443.1414133103942</v>
       </c>
       <c r="I162" t="n">
-        <v>413.2839115140445</v>
+        <v>443.4059060088509</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7036,7 +7032,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631732f50&gt;</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7046,7 +7042,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7055,19 +7051,19 @@
         </is>
       </c>
       <c r="H163" t="n">
-        <v>413.2839115140445</v>
+        <v>443.4059060088509</v>
       </c>
       <c r="I163" t="n">
-        <v>429.3991410097431</v>
+        <v>472.1600957614942</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7077,7 +7073,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317339d0&gt;</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7087,7 +7083,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F210&gt;</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7096,29 +7092,29 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>419.2839115140445</v>
+        <v>443.4059060088509</v>
       </c>
       <c r="I164" t="n">
-        <v>428.3325543057468</v>
+        <v>452.4545488005532</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317963d0&gt;</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7128,7 +7124,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7137,29 +7133,29 @@
         </is>
       </c>
       <c r="H165" t="n">
-        <v>423.3991410097431</v>
+        <v>449.5900957614942</v>
       </c>
       <c r="I165" t="n">
-        <v>423.3991410097431</v>
+        <v>449.5900957614942</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631796850&gt;</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7169,7 +7165,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7178,29 +7174,29 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>423.3991410097431</v>
+        <v>449.5900957614942</v>
       </c>
       <c r="I166" t="n">
-        <v>451.4922122802055</v>
+        <v>469.52</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b5b390&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631730d10&gt;</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7210,7 +7206,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7219,29 +7215,29 @@
         </is>
       </c>
       <c r="H167" t="n">
-        <v>423.52</v>
+        <v>452.4545488005532</v>
       </c>
       <c r="I167" t="n">
-        <v>423.52</v>
+        <v>452.4545488005532</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x198b2b5b010&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b5b050&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631731090&gt;</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7251,7 +7247,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7260,17 +7256,19 @@
         </is>
       </c>
       <c r="H168" t="n">
-        <v>423.52</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>452.4545488005532</v>
+      </c>
+      <c r="I168" t="n">
+        <v>452.4545488005532</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>733</v>
+        <v>758</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7280,17 +7278,17 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317339d0&gt;</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD50&gt;</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7299,39 +7297,39 @@
         </is>
       </c>
       <c r="H169" t="n">
-        <v>428.3325543057468</v>
+        <v>452.4545488005532</v>
       </c>
       <c r="I169" t="n">
-        <v>428.3325543057468</v>
+        <v>461.5513299487596</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>740</v>
+        <v>763</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317973d0&gt;</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7340,39 +7338,39 @@
         </is>
       </c>
       <c r="H170" t="n">
-        <v>428.3325543057468</v>
+        <v>455.5900957614942</v>
       </c>
       <c r="I170" t="n">
-        <v>462.2705728935611</v>
+        <v>466.1600957614942</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;robot (LabServer object) at 0x1f63164a150&gt;</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f63164a110&gt;</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7381,39 +7379,39 @@
         </is>
       </c>
       <c r="H171" t="n">
-        <v>429.3991410097431</v>
+        <v>457.52</v>
       </c>
       <c r="I171" t="n">
-        <v>456.2705728935611</v>
+        <v>457.52</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;robot (LabServer object) at 0x1f63164a150&gt;</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2b75b10&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f63164a310&gt;</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7422,29 +7420,27 @@
         </is>
       </c>
       <c r="H172" t="n">
-        <v>441.52</v>
-      </c>
-      <c r="I172" t="n">
-        <v>445.4922122802055</v>
-      </c>
+        <v>457.52</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2b75c90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631730d10&gt;</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7454,7 +7450,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7463,29 +7459,29 @@
         </is>
       </c>
       <c r="H173" t="n">
-        <v>445.4922122802055</v>
+        <v>461.5513299487596</v>
       </c>
       <c r="I173" t="n">
-        <v>445.4922122802055</v>
+        <v>461.5513299487596</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x198b2b75910&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b75950&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631731090&gt;</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7495,7 +7491,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7504,17 +7500,19 @@
         </is>
       </c>
       <c r="H174" t="n">
-        <v>445.4922122802055</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>461.5513299487596</v>
+      </c>
+      <c r="I174" t="n">
+        <v>516.949547150906</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7524,17 +7522,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2727550&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317941d0&gt;</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7543,39 +7541,39 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>451.4922122802055</v>
+        <v>466.1600957614942</v>
       </c>
       <c r="I175" t="n">
-        <v>462.0622122802055</v>
+        <v>466.1600957614942</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631794050&gt;</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7584,39 +7582,39 @@
         </is>
       </c>
       <c r="H176" t="n">
-        <v>456.2705728935611</v>
+        <v>466.1600957614942</v>
       </c>
       <c r="I176" t="n">
-        <v>456.2705728935611</v>
+        <v>481.8239068775483</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631796950&gt;</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7625,39 +7623,39 @@
         </is>
       </c>
       <c r="H177" t="n">
-        <v>456.2705728935611</v>
+        <v>469.52</v>
       </c>
       <c r="I177" t="n">
-        <v>468.0622122802055</v>
+        <v>475.8239068775483</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b27265d0&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631733fd0&gt;</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7666,39 +7664,39 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>462.0622122802055</v>
+        <v>472.1600957614942</v>
       </c>
       <c r="I178" t="n">
-        <v>462.0622122802055</v>
+        <v>510.949547150906</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x198b2b776d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2b77650&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317963d0&gt;</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7707,37 +7705,39 @@
         </is>
       </c>
       <c r="H179" t="n">
-        <v>462.0622122802055</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>475.8239068775483</v>
+      </c>
+      <c r="I179" t="n">
+        <v>475.8239068775483</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x1f6317953d0&gt;</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631796850&gt;</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7746,29 +7746,27 @@
         </is>
       </c>
       <c r="H180" t="n">
-        <v>462.2705728935611</v>
-      </c>
-      <c r="I180" t="n">
-        <v>471.3673540417676</v>
-      </c>
+        <v>475.8239068775483</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b2753650&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317973d0&gt;</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7778,7 +7776,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7787,29 +7785,29 @@
         </is>
       </c>
       <c r="H181" t="n">
-        <v>468.0622122802055</v>
+        <v>481.8239068775483</v>
       </c>
       <c r="I181" t="n">
-        <v>477.6093453689278</v>
+        <v>492.3939068775483</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317941d0&gt;</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7819,7 +7817,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7828,29 +7826,29 @@
         </is>
       </c>
       <c r="H182" t="n">
-        <v>471.3673540417676</v>
+        <v>492.3939068775483</v>
       </c>
       <c r="I182" t="n">
-        <v>471.3673540417676</v>
+        <v>492.3939068775483</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;back (LabServer object) at 0x1f631796190&gt;</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631794050&gt;</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7860,7 +7858,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7869,19 +7867,17 @@
         </is>
       </c>
       <c r="H183" t="n">
-        <v>471.3673540417676</v>
-      </c>
-      <c r="I183" t="n">
-        <v>483.6093453689278</v>
-      </c>
+        <v>492.3939068775483</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7891,7 +7887,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b2767b90&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f6317328d0&gt;</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7901,7 +7897,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7910,19 +7906,19 @@
         </is>
       </c>
       <c r="H184" t="n">
-        <v>477.6093453689278</v>
+        <v>510.949547150906</v>
       </c>
       <c r="I184" t="n">
-        <v>477.6093453689278</v>
+        <v>510.949547150906</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x198b27516d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7932,7 +7928,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b2751490&gt;</t>
+          <t>&lt;Starving (State) object at 0x1f631732f50&gt;</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -7942,7 +7938,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -7951,27 +7947,29 @@
         </is>
       </c>
       <c r="H185" t="n">
-        <v>477.6093453689278</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>510.949547150906</v>
+      </c>
+      <c r="I185" t="n">
+        <v>510.949547150906</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>&lt;Working (State) object at 0x198b26d6490&gt;</t>
+          <t>&lt;Working (State) object at 0x1f631733fd0&gt;</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7981,7 +7979,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7990,19 +7988,19 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>483.6093453689278</v>
+        <v>510.949547150906</v>
       </c>
       <c r="I186" t="n">
-        <v>493.2199438708662</v>
+        <v>536.2267874139825</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8012,17 +8010,17 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>&lt;Blocking (State) object at 0x198b26d52d0&gt;</t>
+          <t>&lt;Working (State) object at 0x1f6317339d0&gt;</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001F63173F350&gt;</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8031,19 +8029,19 @@
         </is>
       </c>
       <c r="H187" t="n">
-        <v>493.2199438708662</v>
+        <v>516.949547150906</v>
       </c>
       <c r="I187" t="n">
-        <v>493.2199438708662</v>
+        <v>526.5601456528444</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x198b26d67d0&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8053,28 +8051,272 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x198b26d6f10&gt;</t>
+          <t>&lt;Blocking (State) object at 0x1f631730d10&gt;</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>526.5601456528444</v>
+      </c>
+      <c r="I188" t="n">
+        <v>526.5601456528444</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x1f631731090&gt;</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
           <t>Starving</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H188" t="n">
-        <v>493.2199438708662</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>526.5601456528444</v>
+      </c>
+      <c r="I189" t="n">
+        <v>542.2267874139825</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x1f6317328d0&gt;</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>536.2267874139825</v>
+      </c>
+      <c r="I190" t="n">
+        <v>536.2267874139825</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x1f631730550&gt;</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x1f631732f50&gt;</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>536.2267874139825</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>&lt;Working (State) object at 0x1f6317339d0&gt;</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001F63173EC50&gt;</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>542.2267874139825</v>
+      </c>
+      <c r="I192" t="n">
+        <v>550.449509534106</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>&lt;Blocking (State) object at 0x1f631730d10&gt;</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>550.449509534106</v>
+      </c>
+      <c r="I193" t="n">
+        <v>550.449509534106</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x1f631733950&gt;</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x1f631731090&gt;</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001F63173DD10&gt;</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>550.449509534106</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
